--- a/banco de dados/bd_dwna_21332529.xlsx
+++ b/banco de dados/bd_dwna_21332529.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Compartilhado\Ti\Automações 2024\Executáveis\CONTÁBIL\FOPAG SOLUTION\banco de dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF33D9D-AB79-4F8B-BAE5-FB85BADC0154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D82FA39-EEF3-4345-948F-5F3C855D0F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-4890" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="eventos" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="empresas" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">eventos!$A$1:$G$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">eventos!$A$1:$G$323</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="369">
   <si>
     <t>DESCRIÇÃO</t>
   </si>
@@ -217,9 +217,6 @@
     <t>Demonstrativo 1/3 abono pecuniário</t>
   </si>
   <si>
-    <t>Complemento ADC na folha normal</t>
-  </si>
-  <si>
     <t>Demonstrativo adto. 13º salario</t>
   </si>
   <si>
@@ -1139,6 +1136,18 @@
   </si>
   <si>
     <t>VALOR GFD MENSAL 2%</t>
+  </si>
+  <si>
+    <t>FGTS GRF 2%</t>
+  </si>
+  <si>
+    <t>FGTS GRF 8%</t>
+  </si>
+  <si>
+    <t>Complemento ADC na folha normal NÃO CONTABILIZAR</t>
+  </si>
+  <si>
+    <t>Resc. 13º sit.acid.trabalho adic.insalub</t>
   </si>
 </sst>
 </file>
@@ -1146,9 +1155,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1203,6 +1212,20 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1227,11 +1250,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1267,7 +1291,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1276,7 +1300,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1292,10 +1316,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
+    <cellStyle name="Vírgula 2" xfId="2" xr:uid="{E21B7D53-0E7D-41CE-A879-C99B8F8A4E24}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1584,11 +1615,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H351"/>
+  <dimension ref="A1:H354"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H239" sqref="H239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,36 +1636,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>338</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D2" s="10">
         <v>475</v>
@@ -1651,13 +1682,13 @@
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D3" s="10">
         <v>475</v>
@@ -1673,360 +1704,362 @@
       </c>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>121</v>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>365</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="14">
-        <v>479</v>
-      </c>
-      <c r="E4" s="14">
-        <v>479</v>
-      </c>
-      <c r="F4" s="15">
-        <v>569</v>
-      </c>
-      <c r="G4" s="15">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>124</v>
+        <v>118</v>
+      </c>
+      <c r="D4" s="10">
+        <v>475</v>
+      </c>
+      <c r="E4" s="10">
+        <v>475</v>
+      </c>
+      <c r="F4" s="10">
+        <v>578</v>
+      </c>
+      <c r="G4" s="10">
+        <v>25276</v>
+      </c>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="14">
-        <v>471</v>
-      </c>
-      <c r="E5" s="14">
-        <v>471</v>
-      </c>
-      <c r="F5" s="15">
-        <v>567</v>
-      </c>
-      <c r="G5" s="15">
-        <v>567</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="D5" s="10">
+        <v>475</v>
+      </c>
+      <c r="E5" s="10">
+        <v>475</v>
+      </c>
+      <c r="F5" s="10">
+        <v>578</v>
+      </c>
+      <c r="G5" s="10">
+        <v>25276</v>
+      </c>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="D6" s="14">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="E6" s="14">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="F6" s="15">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="G6" s="15">
-        <v>578</v>
+        <v>25273</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="D7" s="14">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E7" s="14">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F7" s="15">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G7" s="15">
-        <v>568</v>
+        <v>25277</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="D8" s="14">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E8" s="14">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="F8" s="15">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="G8" s="15">
-        <v>567</v>
+        <v>25276</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="D9" s="14">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E9" s="14">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F9" s="15">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G9" s="15">
-        <v>578</v>
+        <v>25274</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="D10" s="10">
-        <v>464</v>
-      </c>
-      <c r="E10" s="10">
-        <v>464</v>
-      </c>
-      <c r="F10" s="10">
-        <v>465</v>
-      </c>
-      <c r="G10" s="10">
-        <v>465</v>
+      <c r="A10" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="14">
+        <v>480</v>
+      </c>
+      <c r="E10" s="14">
+        <v>480</v>
+      </c>
+      <c r="F10" s="15">
+        <v>567</v>
+      </c>
+      <c r="G10" s="15">
+        <v>25277</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="D11" s="10">
-        <v>474</v>
-      </c>
-      <c r="E11" s="10">
-        <v>474</v>
-      </c>
-      <c r="F11" s="10">
-        <v>567</v>
-      </c>
-      <c r="G11" s="10">
-        <v>25277</v>
+        <v>127</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="14">
+        <v>481</v>
+      </c>
+      <c r="E11" s="14">
+        <v>481</v>
+      </c>
+      <c r="F11" s="15">
+        <v>578</v>
+      </c>
+      <c r="G11" s="15">
+        <v>25276</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>118</v>
+        <v>331</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" s="10">
+        <v>464</v>
+      </c>
+      <c r="E12" s="10">
+        <v>464</v>
+      </c>
+      <c r="F12" s="10">
+        <v>465</v>
+      </c>
+      <c r="G12" s="10">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="D13" s="10">
+        <v>474</v>
+      </c>
+      <c r="E13" s="10">
+        <v>474</v>
+      </c>
+      <c r="F13" s="10">
+        <v>567</v>
+      </c>
+      <c r="G13" s="10">
+        <v>25277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D12" s="10">
+      <c r="B14" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="10">
         <v>25282</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E14" s="10">
         <v>25282</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F14" s="10">
         <v>474</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G14" s="10">
         <v>474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>5</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="10">
-        <v>465</v>
-      </c>
-      <c r="E13" s="10">
-        <v>465</v>
-      </c>
-      <c r="F13" s="10">
-        <v>566</v>
-      </c>
-      <c r="G13" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>20</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="D14" s="10">
-        <v>465</v>
-      </c>
-      <c r="E14" s="10">
-        <v>465</v>
-      </c>
-      <c r="F14" s="10">
-        <v>566</v>
-      </c>
-      <c r="G14" s="10">
-        <v>25272</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="10">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E15" s="10">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F15" s="10">
-        <v>25287</v>
+        <v>566</v>
       </c>
       <c r="G15" s="10">
-        <v>25286</v>
+        <v>25272</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>35</v>
+      <c r="A16" s="9">
+        <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>4</v>
+      <c r="C16" s="9" t="s">
+        <v>357</v>
       </c>
       <c r="D16" s="10">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E16" s="10">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F16" s="10">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="G16" s="10">
-        <v>579</v>
+        <v>25272</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="10">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E17" s="10">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F17" s="10">
-        <v>25290</v>
+        <v>25287</v>
       </c>
       <c r="G17" s="10">
-        <v>25289</v>
+        <v>25286</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" s="10">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="E18" s="10">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F18" s="10">
-        <v>25283</v>
+        <v>579</v>
       </c>
       <c r="G18" s="10">
-        <v>25281</v>
+        <v>579</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>204</v>
+      <c r="A19" s="10">
+        <v>152</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>7</v>
+      <c r="C19" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="D19" s="10">
         <v>465</v>
@@ -2035,21 +2068,21 @@
         <v>465</v>
       </c>
       <c r="F19" s="10">
-        <v>25283</v>
+        <v>25290</v>
       </c>
       <c r="G19" s="10">
-        <v>25281</v>
+        <v>25289</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D20" s="10">
         <v>465</v>
@@ -2058,21 +2091,21 @@
         <v>465</v>
       </c>
       <c r="F20" s="10">
-        <v>566</v>
+        <v>25283</v>
       </c>
       <c r="G20" s="10">
-        <v>25272</v>
+        <v>25281</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>263</v>
+      <c r="A21" s="9">
+        <v>204</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>9</v>
+      <c r="C21" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="D21" s="10">
         <v>465</v>
@@ -2081,21 +2114,21 @@
         <v>465</v>
       </c>
       <c r="F21" s="10">
-        <v>566</v>
+        <v>25283</v>
       </c>
       <c r="G21" s="10">
-        <v>25272</v>
+        <v>25281</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D22" s="10">
         <v>465</v>
@@ -2112,13 +2145,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" s="10">
         <v>465</v>
@@ -2135,13 +2168,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24" s="10">
         <v>465</v>
@@ -2158,13 +2191,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" s="10">
         <v>465</v>
@@ -2181,13 +2214,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D26" s="10">
         <v>465</v>
@@ -2204,13 +2237,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D27" s="10">
         <v>465</v>
@@ -2227,13 +2260,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D28" s="10">
         <v>465</v>
@@ -2250,82 +2283,82 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
+        <v>309</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="10">
+        <v>465</v>
+      </c>
+      <c r="E29" s="10">
+        <v>465</v>
+      </c>
+      <c r="F29" s="10">
+        <v>566</v>
+      </c>
+      <c r="G29" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>310</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="10">
+        <v>465</v>
+      </c>
+      <c r="E30" s="10">
+        <v>465</v>
+      </c>
+      <c r="F30" s="10">
+        <v>566</v>
+      </c>
+      <c r="G30" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <v>314</v>
       </c>
-      <c r="B29" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="16" t="s">
+      <c r="B31" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="10">
-        <v>465</v>
-      </c>
-      <c r="E29" s="10">
-        <v>465</v>
-      </c>
-      <c r="F29" s="10">
-        <v>566</v>
-      </c>
-      <c r="G29" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
-        <v>315</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="10">
-        <v>465</v>
-      </c>
-      <c r="E30" s="10">
-        <v>465</v>
-      </c>
-      <c r="F30" s="10">
-        <v>566</v>
-      </c>
-      <c r="G30" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
-        <v>327</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>19</v>
-      </c>
       <c r="D31" s="10">
-        <v>566</v>
+        <v>465</v>
       </c>
       <c r="E31" s="10">
-        <v>25272</v>
+        <v>465</v>
       </c>
       <c r="F31" s="10">
-        <v>465</v>
+        <v>566</v>
       </c>
       <c r="G31" s="10">
-        <v>465</v>
+        <v>25272</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="D32" s="10">
         <v>465</v>
@@ -2334,44 +2367,44 @@
         <v>465</v>
       </c>
       <c r="F32" s="10">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="G32" s="10">
-        <v>573</v>
+        <v>25272</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="10">
-        <v>335</v>
+      <c r="A33" s="9">
+        <v>327</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="9" t="s">
-        <v>20</v>
+      <c r="C33" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="D33" s="10">
-        <v>465</v>
+        <v>566</v>
       </c>
       <c r="E33" s="10">
-        <v>465</v>
+        <v>25272</v>
       </c>
       <c r="F33" s="10">
-        <v>566</v>
+        <v>465</v>
       </c>
       <c r="G33" s="10">
-        <v>25272</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>21</v>
+        <v>358</v>
       </c>
       <c r="D34" s="10">
         <v>465</v>
@@ -2380,21 +2413,21 @@
         <v>465</v>
       </c>
       <c r="F34" s="10">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="G34" s="10">
-        <v>25272</v>
+        <v>573</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>22</v>
+      <c r="C35" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="D35" s="10">
         <v>465</v>
@@ -2411,82 +2444,82 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
+        <v>342</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="10">
+        <v>465</v>
+      </c>
+      <c r="E36" s="10">
+        <v>465</v>
+      </c>
+      <c r="F36" s="10">
+        <v>566</v>
+      </c>
+      <c r="G36" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="10">
+        <v>346</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="10">
+        <v>465</v>
+      </c>
+      <c r="E37" s="10">
+        <v>465</v>
+      </c>
+      <c r="F37" s="10">
+        <v>566</v>
+      </c>
+      <c r="G37" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
         <v>350</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="9" t="s">
+      <c r="B38" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="10">
-        <v>465</v>
-      </c>
-      <c r="E36" s="10">
-        <v>465</v>
-      </c>
-      <c r="F36" s="10">
-        <v>566</v>
-      </c>
-      <c r="G36" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="D38" s="10">
+        <v>465</v>
+      </c>
+      <c r="E38" s="10">
+        <v>465</v>
+      </c>
+      <c r="F38" s="10">
+        <v>566</v>
+      </c>
+      <c r="G38" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
         <v>521</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="D37" s="10">
-        <v>465</v>
-      </c>
-      <c r="E37" s="10">
-        <v>465</v>
-      </c>
-      <c r="F37" s="10">
-        <v>566</v>
-      </c>
-      <c r="G37" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="10">
-        <v>541</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="10">
-        <v>465</v>
-      </c>
-      <c r="E38" s="10">
-        <v>465</v>
-      </c>
-      <c r="F38" s="10">
-        <v>566</v>
-      </c>
-      <c r="G38" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="10">
-        <v>603</v>
-      </c>
       <c r="B39" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="16" t="s">
-        <v>25</v>
+      <c r="C39" s="9" t="s">
+        <v>361</v>
       </c>
       <c r="D39" s="10">
         <v>465</v>
@@ -2495,21 +2528,21 @@
         <v>465</v>
       </c>
       <c r="F39" s="10">
-        <v>25636</v>
+        <v>566</v>
       </c>
       <c r="G39" s="10">
-        <v>25635</v>
+        <v>25272</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
-        <v>608</v>
+        <v>541</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D40" s="10">
         <v>465</v>
@@ -2518,21 +2551,21 @@
         <v>465</v>
       </c>
       <c r="F40" s="10">
-        <v>25636</v>
+        <v>566</v>
       </c>
       <c r="G40" s="10">
-        <v>25635</v>
+        <v>25272</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
-        <v>613</v>
+      <c r="A41" s="10">
+        <v>603</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>27</v>
+      <c r="C41" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="D41" s="10">
         <v>465</v>
@@ -2548,14 +2581,14 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
-        <v>743</v>
+      <c r="A42" s="10">
+        <v>608</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>28</v>
+      <c r="C42" s="16" t="s">
+        <v>26</v>
       </c>
       <c r="D42" s="10">
         <v>465</v>
@@ -2564,21 +2597,21 @@
         <v>465</v>
       </c>
       <c r="F42" s="10">
-        <v>566</v>
+        <v>25636</v>
       </c>
       <c r="G42" s="10">
-        <v>25272</v>
+        <v>25635</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
-        <v>1004</v>
+        <v>613</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="16" t="s">
-        <v>29</v>
+      <c r="C43" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="D43" s="10">
         <v>465</v>
@@ -2587,21 +2620,21 @@
         <v>465</v>
       </c>
       <c r="F43" s="10">
-        <v>566</v>
+        <v>25636</v>
       </c>
       <c r="G43" s="10">
-        <v>25272</v>
+        <v>25635</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
-        <v>1009</v>
+        <v>743</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D44" s="10">
         <v>465</v>
@@ -2618,60 +2651,60 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
+        <v>1004</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="10">
+        <v>465</v>
+      </c>
+      <c r="E45" s="10">
+        <v>465</v>
+      </c>
+      <c r="F45" s="10">
+        <v>566</v>
+      </c>
+      <c r="G45" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>1009</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="10">
+        <v>465</v>
+      </c>
+      <c r="E46" s="10">
+        <v>465</v>
+      </c>
+      <c r="F46" s="10">
+        <v>566</v>
+      </c>
+      <c r="G46" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
         <v>1010</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45" s="9" t="s">
+      <c r="B47" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="10">
-        <v>465</v>
-      </c>
-      <c r="E45" s="10">
-        <v>465</v>
-      </c>
-      <c r="F45" s="10">
-        <v>566</v>
-      </c>
-      <c r="G45" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="10">
-        <v>465</v>
-      </c>
-      <c r="E46" s="10">
-        <v>465</v>
-      </c>
-      <c r="F46" s="10">
-        <v>566</v>
-      </c>
-      <c r="G46" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="10">
-        <v>10005</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="D47" s="10">
         <v>465</v>
       </c>
@@ -2679,21 +2712,21 @@
         <v>465</v>
       </c>
       <c r="F47" s="10">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G47" s="10">
-        <v>25274</v>
+        <v>25272</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
-        <v>10152</v>
+        <v>2005</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D48" s="10">
         <v>465</v>
@@ -2702,15 +2735,15 @@
         <v>465</v>
       </c>
       <c r="F48" s="10">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G48" s="10">
-        <v>25274</v>
+        <v>25272</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
-        <v>10252</v>
+        <v>10005</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>1</v>
@@ -2732,14 +2765,14 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
-        <v>10453</v>
+      <c r="A50" s="10">
+        <v>10152</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>35</v>
+      <c r="C50" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="D50" s="10">
         <v>465</v>
@@ -2756,13 +2789,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
-        <v>10454</v>
+        <v>10252</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D51" s="10">
         <v>465</v>
@@ -2778,14 +2811,14 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>10551</v>
+      <c r="A52" s="9">
+        <v>10453</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="16" t="s">
-        <v>37</v>
+      <c r="C52" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="D52" s="10">
         <v>465</v>
@@ -2801,14 +2834,14 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
-        <v>10553</v>
+      <c r="A53" s="10">
+        <v>10454</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="9" t="s">
-        <v>38</v>
+      <c r="C53" s="16" t="s">
+        <v>36</v>
       </c>
       <c r="D53" s="10">
         <v>465</v>
@@ -2825,13 +2858,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
-        <v>10556</v>
+        <v>10551</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D54" s="10">
         <v>465</v>
@@ -2847,14 +2880,14 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="10">
-        <v>10602</v>
+      <c r="A55" s="9">
+        <v>10553</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="16" t="s">
-        <v>40</v>
+      <c r="C55" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="D55" s="10">
         <v>465</v>
@@ -2871,13 +2904,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
-        <v>10651</v>
+        <v>10556</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D56" s="10">
         <v>465</v>
@@ -2894,36 +2927,36 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
-        <v>10701</v>
+        <v>10602</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="9">
-        <v>465</v>
-      </c>
-      <c r="E57" s="9">
-        <v>465</v>
-      </c>
-      <c r="F57" s="9">
+        <v>40</v>
+      </c>
+      <c r="D57" s="10">
+        <v>465</v>
+      </c>
+      <c r="E57" s="10">
+        <v>465</v>
+      </c>
+      <c r="F57" s="10">
         <v>568</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="10">
         <v>25274</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
-        <v>10751</v>
+        <v>10651</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D58" s="10">
         <v>465</v>
@@ -2940,36 +2973,36 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
-        <v>10993</v>
+        <v>10701</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D59" s="10">
-        <v>465</v>
-      </c>
-      <c r="E59" s="10">
-        <v>465</v>
-      </c>
-      <c r="F59" s="10">
+        <v>42</v>
+      </c>
+      <c r="D59" s="9">
+        <v>465</v>
+      </c>
+      <c r="E59" s="9">
+        <v>465</v>
+      </c>
+      <c r="F59" s="9">
         <v>568</v>
       </c>
-      <c r="G59" s="10">
+      <c r="G59" s="9">
         <v>25274</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="10">
-        <v>11005</v>
+        <v>10751</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D60" s="10">
         <v>465</v>
@@ -2978,67 +3011,67 @@
         <v>465</v>
       </c>
       <c r="F60" s="10">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G60" s="10">
-        <v>25272</v>
+        <v>25274</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="10">
+        <v>10993</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" s="10">
+        <v>465</v>
+      </c>
+      <c r="E61" s="10">
+        <v>465</v>
+      </c>
+      <c r="F61" s="10">
+        <v>568</v>
+      </c>
+      <c r="G61" s="10">
+        <v>25274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="10">
+        <v>11005</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="10">
+        <v>465</v>
+      </c>
+      <c r="E62" s="10">
+        <v>465</v>
+      </c>
+      <c r="F62" s="10">
+        <v>566</v>
+      </c>
+      <c r="G62" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="10">
         <v>11551</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" s="16" t="s">
+      <c r="B63" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="D61" s="10">
-        <v>465</v>
-      </c>
-      <c r="E61" s="10">
-        <v>465</v>
-      </c>
-      <c r="F61" s="10">
-        <v>566</v>
-      </c>
-      <c r="G61" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="9">
-        <v>11152</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D62" s="10">
-        <v>465</v>
-      </c>
-      <c r="E62" s="10">
-        <v>465</v>
-      </c>
-      <c r="F62" s="10">
-        <v>566</v>
-      </c>
-      <c r="G62" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="9">
-        <v>11252</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="D63" s="10">
         <v>465</v>
@@ -3055,13 +3088,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
-        <v>11453</v>
+        <v>11152</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D64" s="10">
         <v>465</v>
@@ -3078,13 +3111,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
-        <v>11454</v>
+        <v>11252</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D65" s="10">
         <v>465</v>
@@ -3101,13 +3134,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="9">
-        <v>11553</v>
+        <v>11453</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D66" s="10">
         <v>465</v>
@@ -3124,59 +3157,59 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
+        <v>11454</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D67" s="10">
+        <v>465</v>
+      </c>
+      <c r="E67" s="10">
+        <v>465</v>
+      </c>
+      <c r="F67" s="10">
+        <v>566</v>
+      </c>
+      <c r="G67" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>11553</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D68" s="10">
+        <v>465</v>
+      </c>
+      <c r="E68" s="10">
+        <v>465</v>
+      </c>
+      <c r="F68" s="10">
+        <v>566</v>
+      </c>
+      <c r="G68" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
         <v>11554</v>
       </c>
-      <c r="B67" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67" s="9" t="s">
+      <c r="B69" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="D67" s="10">
-        <v>465</v>
-      </c>
-      <c r="E67" s="10">
-        <v>465</v>
-      </c>
-      <c r="F67" s="10">
-        <v>566</v>
-      </c>
-      <c r="G67" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="10">
-        <v>11602</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D68" s="10">
-        <v>465</v>
-      </c>
-      <c r="E68" s="10">
-        <v>465</v>
-      </c>
-      <c r="F68" s="10">
-        <v>566</v>
-      </c>
-      <c r="G68" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="10">
-        <v>11651</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="D69" s="10">
         <v>465</v>
@@ -3193,13 +3226,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
-        <v>11701</v>
+        <v>11602</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D70" s="10">
         <v>465</v>
@@ -3216,13 +3249,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="10">
-        <v>11751</v>
+        <v>11651</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D71" s="10">
         <v>465</v>
@@ -3239,105 +3272,97 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
+        <v>11701</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="10">
+        <v>465</v>
+      </c>
+      <c r="E72" s="10">
+        <v>465</v>
+      </c>
+      <c r="F72" s="10">
+        <v>566</v>
+      </c>
+      <c r="G72" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>11751</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D73" s="10">
+        <v>465</v>
+      </c>
+      <c r="E73" s="10">
+        <v>465</v>
+      </c>
+      <c r="F73" s="10">
+        <v>566</v>
+      </c>
+      <c r="G73" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="10">
         <v>11993</v>
       </c>
-      <c r="B72" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C72" s="16" t="s">
+      <c r="B74" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D72" s="10">
-        <v>465</v>
-      </c>
-      <c r="E72" s="10">
-        <v>465</v>
-      </c>
-      <c r="F72" s="10">
-        <v>566</v>
-      </c>
-      <c r="G72" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="9">
+      <c r="D74" s="10">
+        <v>465</v>
+      </c>
+      <c r="E74" s="10">
+        <v>465</v>
+      </c>
+      <c r="F74" s="10">
+        <v>566</v>
+      </c>
+      <c r="G74" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="23">
         <v>14802</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D73" s="10">
-        <v>465</v>
-      </c>
-      <c r="E73" s="10">
-        <v>465</v>
-      </c>
-      <c r="F73" s="10">
-        <v>566</v>
-      </c>
-      <c r="G73" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="9">
-        <v>15005</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C74" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D74" s="10">
-        <v>465</v>
-      </c>
-      <c r="E74" s="10">
-        <v>465</v>
-      </c>
-      <c r="F74" s="10">
-        <v>413</v>
-      </c>
-      <c r="G74" s="10">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="9">
-        <v>15152</v>
-      </c>
-      <c r="B75" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="D75" s="10">
-        <v>465</v>
-      </c>
-      <c r="E75" s="10">
-        <v>465</v>
-      </c>
-      <c r="F75" s="10">
-        <v>413</v>
-      </c>
-      <c r="G75" s="10">
-        <v>413</v>
-      </c>
+      <c r="B75" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="9">
-        <v>17005</v>
+        <v>15005</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C76" s="16" t="s">
-        <v>61</v>
+      <c r="C76" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="D76" s="10">
         <v>465</v>
@@ -3346,21 +3371,21 @@
         <v>465</v>
       </c>
       <c r="F76" s="10">
-        <v>568</v>
+        <v>413</v>
       </c>
       <c r="G76" s="10">
-        <v>25274</v>
+        <v>413</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="9">
-        <v>17007</v>
+        <v>15152</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D77" s="10">
         <v>465</v>
@@ -3369,21 +3394,21 @@
         <v>465</v>
       </c>
       <c r="F77" s="10">
-        <v>566</v>
+        <v>413</v>
       </c>
       <c r="G77" s="10">
-        <v>25272</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="10">
-        <v>17009</v>
+      <c r="A78" s="9">
+        <v>17005</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D78" s="10">
         <v>465</v>
@@ -3392,21 +3417,21 @@
         <v>465</v>
       </c>
       <c r="F78" s="10">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G78" s="10">
-        <v>25272</v>
+        <v>25274</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="9">
-        <v>17010</v>
+        <v>17007</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="16" t="s">
-        <v>64</v>
+      <c r="C79" s="9" t="s">
+        <v>61</v>
       </c>
       <c r="D79" s="10">
         <v>465</v>
@@ -3415,21 +3440,21 @@
         <v>465</v>
       </c>
       <c r="F79" s="10">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G79" s="10">
-        <v>25274</v>
+        <v>25272</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="10">
-        <v>17013</v>
+        <v>17009</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="9" t="s">
-        <v>65</v>
+      <c r="C80" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="D80" s="10">
         <v>465</v>
@@ -3438,21 +3463,21 @@
         <v>465</v>
       </c>
       <c r="F80" s="10">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G80" s="10">
-        <v>25274</v>
+        <v>25272</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="9">
-        <v>17014</v>
+        <v>17010</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="9" t="s">
-        <v>66</v>
+      <c r="C81" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="D81" s="10">
         <v>465</v>
@@ -3461,21 +3486,21 @@
         <v>465</v>
       </c>
       <c r="F81" s="10">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G81" s="10">
-        <v>25272</v>
+        <v>25274</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="9">
-        <v>17020</v>
+      <c r="A82" s="10">
+        <v>17013</v>
       </c>
       <c r="B82" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="16" t="s">
-        <v>67</v>
+      <c r="C82" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="D82" s="10">
         <v>465</v>
@@ -3492,13 +3517,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="9">
-        <v>17021</v>
+        <v>17014</v>
       </c>
       <c r="B83" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D83" s="10">
         <v>465</v>
@@ -3507,21 +3532,21 @@
         <v>465</v>
       </c>
       <c r="F83" s="10">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G83" s="10">
-        <v>25274</v>
+        <v>25272</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="9">
-        <v>17022</v>
+        <v>17020</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D84" s="10">
         <v>465</v>
@@ -3538,13 +3563,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="9">
-        <v>17023</v>
+        <v>17021</v>
       </c>
       <c r="B85" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="16" t="s">
-        <v>70</v>
+      <c r="C85" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="D85" s="10">
         <v>465</v>
@@ -3561,13 +3586,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="9">
-        <v>17105</v>
+        <v>17022</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D86" s="10">
         <v>465</v>
@@ -3584,13 +3609,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
-        <v>17205</v>
+        <v>17023</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D87" s="10">
         <v>465</v>
@@ -3599,21 +3624,21 @@
         <v>465</v>
       </c>
       <c r="F87" s="10">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G87" s="10">
-        <v>25272</v>
+        <v>25274</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="9">
-        <v>17206</v>
+        <v>17105</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="9" t="s">
-        <v>73</v>
+      <c r="C88" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="D88" s="10">
         <v>465</v>
@@ -3622,21 +3647,21 @@
         <v>465</v>
       </c>
       <c r="F88" s="10">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G88" s="10">
-        <v>25272</v>
+        <v>25274</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
-        <v>17220</v>
+        <v>17205</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D89" s="10">
         <v>465</v>
@@ -3652,14 +3677,14 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="10">
-        <v>17221</v>
+      <c r="A90" s="9">
+        <v>17206</v>
       </c>
       <c r="B90" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D90" s="10">
         <v>465</v>
@@ -3676,13 +3701,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
-        <v>17222</v>
+        <v>17220</v>
       </c>
       <c r="B91" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D91" s="10">
         <v>465</v>
@@ -3698,14 +3723,14 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="9">
-        <v>17223</v>
+      <c r="A92" s="10">
+        <v>17221</v>
       </c>
       <c r="B92" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="16" t="s">
-        <v>75</v>
+      <c r="C92" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="D92" s="10">
         <v>465</v>
@@ -3722,13 +3747,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="9">
-        <v>17305</v>
+        <v>17222</v>
       </c>
       <c r="B93" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D93" s="10">
         <v>465</v>
@@ -3745,13 +3770,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="9">
-        <v>17905</v>
+        <v>17223</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="9" t="s">
-        <v>78</v>
+      <c r="C94" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="D94" s="10">
         <v>465</v>
@@ -3760,21 +3785,21 @@
         <v>465</v>
       </c>
       <c r="F94" s="10">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G94" s="10">
-        <v>25273</v>
+        <v>25272</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="9">
-        <v>18005</v>
+        <v>17305</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="9" t="s">
-        <v>79</v>
+      <c r="C95" s="16" t="s">
+        <v>76</v>
       </c>
       <c r="D95" s="10">
         <v>465</v>
@@ -3790,14 +3815,14 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="10">
-        <v>18152</v>
+      <c r="A96" s="9">
+        <v>17905</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C96" s="16" t="s">
-        <v>80</v>
+      <c r="C96" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="D96" s="10">
         <v>465</v>
@@ -3806,21 +3831,21 @@
         <v>465</v>
       </c>
       <c r="F96" s="10">
-        <v>25290</v>
+        <v>569</v>
       </c>
       <c r="G96" s="10">
-        <v>25289</v>
+        <v>25273</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="9">
-        <v>18203</v>
+        <v>18005</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D97" s="10">
         <v>465</v>
@@ -3837,13 +3862,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="10">
-        <v>18263</v>
+        <v>18152</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D98" s="10">
         <v>465</v>
@@ -3852,21 +3877,21 @@
         <v>465</v>
       </c>
       <c r="F98" s="10">
-        <v>566</v>
+        <v>25290</v>
       </c>
       <c r="G98" s="10">
-        <v>25272</v>
+        <v>25289</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="10">
-        <v>18264</v>
+      <c r="A99" s="9">
+        <v>18203</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="16" t="s">
-        <v>83</v>
+      <c r="C99" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="D99" s="10">
         <v>465</v>
@@ -3883,13 +3908,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="10">
-        <v>18291</v>
+        <v>18263</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D100" s="10">
         <v>465</v>
@@ -3906,59 +3931,59 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="10">
-        <v>40005</v>
+        <v>18264</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D101" s="10">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="E101" s="10">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="F101" s="10">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G101" s="10">
-        <v>25273</v>
+        <v>25272</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="10">
-        <v>40101</v>
+        <v>18291</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D102" s="10">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="E102" s="10">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="F102" s="10">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G102" s="10">
-        <v>25273</v>
+        <v>25272</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="10">
-        <v>40152</v>
+        <v>40005</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D103" s="10">
         <v>413</v>
@@ -3975,13 +4000,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="10">
-        <v>40252</v>
+        <v>40101</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D104" s="10">
         <v>413</v>
@@ -3998,13 +4023,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="10">
-        <v>40454</v>
+        <v>40152</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D105" s="10">
         <v>413</v>
@@ -4021,13 +4046,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="10">
-        <v>40456</v>
+        <v>40252</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D106" s="10">
         <v>413</v>
@@ -4044,13 +4069,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="10">
-        <v>40551</v>
+        <v>40454</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="D107" s="10">
         <v>413</v>
@@ -4067,13 +4092,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
-        <v>40554</v>
+        <v>40456</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="D108" s="10">
         <v>413</v>
@@ -4090,13 +4115,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="10">
-        <v>40701</v>
+        <v>40551</v>
       </c>
       <c r="B109" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D109" s="10">
         <v>413</v>
@@ -4113,13 +4138,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="10">
-        <v>40751</v>
+        <v>40554</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D110" s="10">
         <v>413</v>
@@ -4136,13 +4161,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="10">
-        <v>42005</v>
+        <v>40701</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D111" s="10">
         <v>413</v>
@@ -4159,13 +4184,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="10">
-        <v>42102</v>
+        <v>40751</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D112" s="10">
         <v>413</v>
@@ -4182,13 +4207,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
-        <v>42404</v>
+        <v>42005</v>
       </c>
       <c r="B113" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D113" s="10">
         <v>413</v>
@@ -4205,13 +4230,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="10">
-        <v>43005</v>
+        <v>42102</v>
       </c>
       <c r="B114" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D114" s="10">
         <v>413</v>
@@ -4227,60 +4252,60 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="9">
-        <v>50005</v>
+      <c r="A115" s="10">
+        <v>42404</v>
       </c>
       <c r="B115" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="9" t="s">
-        <v>134</v>
+      <c r="C115" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="D115" s="10">
-        <v>468</v>
+        <v>413</v>
       </c>
       <c r="E115" s="10">
-        <v>468</v>
+        <v>413</v>
       </c>
       <c r="F115" s="10">
         <v>569</v>
       </c>
       <c r="G115" s="10">
-        <v>569</v>
+        <v>25273</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="9">
-        <v>50101</v>
+      <c r="A116" s="10">
+        <v>43005</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C116" s="9" t="s">
-        <v>135</v>
+      <c r="C116" s="16" t="s">
+        <v>130</v>
       </c>
       <c r="D116" s="10">
-        <v>468</v>
+        <v>413</v>
       </c>
       <c r="E116" s="10">
-        <v>468</v>
+        <v>413</v>
       </c>
       <c r="F116" s="10">
         <v>569</v>
       </c>
       <c r="G116" s="10">
-        <v>569</v>
+        <v>25273</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="9">
-        <v>50152</v>
+        <v>50005</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D117" s="10">
         <v>468</v>
@@ -4297,13 +4322,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="9">
-        <v>50252</v>
+        <v>50101</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D118" s="10">
         <v>468</v>
@@ -4320,13 +4345,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="9">
-        <v>50454</v>
+        <v>50152</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D119" s="10">
         <v>468</v>
@@ -4343,13 +4368,13 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="9">
-        <v>50551</v>
+        <v>50252</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D120" s="10">
         <v>468</v>
@@ -4366,13 +4391,13 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="9">
-        <v>50553</v>
+        <v>50454</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D121" s="10">
         <v>468</v>
@@ -4389,13 +4414,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="9">
-        <v>50602</v>
+        <v>50551</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D122" s="10">
         <v>468</v>
@@ -4412,13 +4437,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="9">
-        <v>50651</v>
+        <v>50553</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D123" s="10">
         <v>468</v>
@@ -4435,13 +4460,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="9">
-        <v>50701</v>
+        <v>50602</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D124" s="10">
         <v>468</v>
@@ -4458,13 +4483,13 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="9">
-        <v>50751</v>
+        <v>50651</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D125" s="10">
         <v>468</v>
@@ -4481,13 +4506,13 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="9">
-        <v>51005</v>
+        <v>50701</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D126" s="10">
         <v>468</v>
@@ -4504,13 +4529,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
-        <v>51503</v>
+        <v>50751</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D127" s="10">
         <v>468</v>
@@ -4527,13 +4552,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="9">
-        <v>51602</v>
+        <v>51005</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C128" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D128" s="10">
         <v>468</v>
@@ -4550,13 +4575,13 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
-        <v>51651</v>
+        <v>51503</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D129" s="10">
         <v>468</v>
@@ -4573,13 +4598,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
-        <v>52005</v>
+        <v>51602</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D130" s="10">
         <v>468</v>
@@ -4595,14 +4620,14 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="10">
-        <v>52102</v>
+      <c r="A131" s="9">
+        <v>51651</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C131" s="16" t="s">
-        <v>150</v>
+      <c r="C131" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="D131" s="10">
         <v>468</v>
@@ -4614,18 +4639,18 @@
         <v>569</v>
       </c>
       <c r="G131" s="10">
-        <v>25273</v>
+        <v>569</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="9">
-        <v>52602</v>
+        <v>52005</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C132" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D132" s="10">
         <v>468</v>
@@ -4641,14 +4666,14 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="9">
-        <v>52651</v>
+      <c r="A133" s="10">
+        <v>52102</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C133" s="9" t="s">
-        <v>152</v>
+      <c r="C133" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="D133" s="10">
         <v>468</v>
@@ -4660,18 +4685,18 @@
         <v>569</v>
       </c>
       <c r="G133" s="10">
-        <v>569</v>
+        <v>25273</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="9">
-        <v>53005</v>
+        <v>52602</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C134" s="9" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D134" s="10">
         <v>468</v>
@@ -4686,61 +4711,61 @@
         <v>569</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="9">
+        <v>52651</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D135" s="10">
+        <v>468</v>
+      </c>
+      <c r="E135" s="10">
+        <v>468</v>
+      </c>
+      <c r="F135" s="10">
+        <v>569</v>
+      </c>
+      <c r="G135" s="10">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="9">
+        <v>53005</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D136" s="10">
+        <v>468</v>
+      </c>
+      <c r="E136" s="10">
+        <v>468</v>
+      </c>
+      <c r="F136" s="10">
+        <v>569</v>
+      </c>
+      <c r="G136" s="10">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="9">
         <v>58005</v>
       </c>
-      <c r="B135" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D135" s="10">
-        <v>413</v>
-      </c>
-      <c r="E135" s="10">
-        <v>413</v>
-      </c>
-      <c r="F135" s="10">
-        <v>468</v>
-      </c>
-      <c r="G135" s="10">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="9">
-        <v>58501</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C136" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D136" s="10">
-        <v>413</v>
-      </c>
-      <c r="E136" s="10">
-        <v>413</v>
-      </c>
-      <c r="F136" s="10">
-        <v>468</v>
-      </c>
-      <c r="G136" s="10">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="9">
-        <v>58505</v>
-      </c>
       <c r="B137" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D137" s="10">
         <v>413</v>
@@ -4755,15 +4780,15 @@
         <v>468</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="9">
-        <v>59105</v>
+        <v>58501</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D138" s="10">
         <v>413</v>
@@ -4780,59 +4805,59 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="9">
-        <v>60005</v>
+        <v>58505</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C139" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D139" s="10">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="E139" s="10">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="F139" s="10">
-        <v>569</v>
+        <v>468</v>
       </c>
       <c r="G139" s="10">
-        <v>25273</v>
+        <v>468</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="9">
-        <v>60102</v>
+        <v>59105</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C140" s="9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D140" s="10">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="E140" s="10">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="F140" s="10">
-        <v>569</v>
+        <v>468</v>
       </c>
       <c r="G140" s="10">
-        <v>25273</v>
+        <v>468</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="9">
-        <v>60404</v>
+        <v>60005</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D141" s="10">
         <v>465</v>
@@ -4848,14 +4873,14 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="10">
-        <v>60502</v>
+      <c r="A142" s="9">
+        <v>60102</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C142" s="9" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D142" s="10">
         <v>465</v>
@@ -4871,14 +4896,14 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="10">
-        <v>60505</v>
+      <c r="A143" s="9">
+        <v>60404</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D143" s="10">
         <v>465</v>
@@ -4895,13 +4920,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="10">
-        <v>60506</v>
+        <v>60502</v>
       </c>
       <c r="B144" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C144" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D144" s="10">
         <v>465</v>
@@ -4918,13 +4943,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="10">
-        <v>60602</v>
+        <v>60505</v>
       </c>
       <c r="B145" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D145" s="10">
         <v>465</v>
@@ -4941,13 +4966,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="10">
-        <v>60651</v>
+        <v>60506</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C146" s="9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D146" s="10">
         <v>465</v>
@@ -4964,13 +4989,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="10">
-        <v>60701</v>
+        <v>60602</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D147" s="10">
         <v>465</v>
@@ -4987,13 +5012,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="10">
-        <v>60751</v>
+        <v>60651</v>
       </c>
       <c r="B148" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C148" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D148" s="10">
         <v>465</v>
@@ -5010,13 +5035,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="10">
-        <v>61005</v>
+        <v>60701</v>
       </c>
       <c r="B149" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C149" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D149" s="10">
         <v>465</v>
@@ -5033,13 +5058,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="10">
-        <v>61404</v>
+        <v>60751</v>
       </c>
       <c r="B150" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C150" s="9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D150" s="10">
         <v>465</v>
@@ -5056,13 +5081,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="10">
-        <v>61503</v>
+        <v>61005</v>
       </c>
       <c r="B151" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D151" s="10">
         <v>465</v>
@@ -5079,13 +5104,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="10">
-        <v>61602</v>
+        <v>61404</v>
       </c>
       <c r="B152" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C152" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D152" s="10">
         <v>465</v>
@@ -5102,13 +5127,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="10">
-        <v>61651</v>
+        <v>61503</v>
       </c>
       <c r="B153" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D153" s="10">
         <v>465</v>
@@ -5125,13 +5150,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
-        <v>63005</v>
+        <v>61602</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D154" s="10">
         <v>465</v>
@@ -5148,82 +5173,82 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="10">
+        <v>61651</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D155" s="10">
+        <v>465</v>
+      </c>
+      <c r="E155" s="10">
+        <v>465</v>
+      </c>
+      <c r="F155" s="10">
+        <v>569</v>
+      </c>
+      <c r="G155" s="10">
+        <v>25273</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="10">
+        <v>63005</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D156" s="10">
+        <v>465</v>
+      </c>
+      <c r="E156" s="10">
+        <v>465</v>
+      </c>
+      <c r="F156" s="10">
+        <v>569</v>
+      </c>
+      <c r="G156" s="10">
+        <v>25273</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="10">
         <v>70005</v>
       </c>
-      <c r="B155" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D155" s="10">
-        <v>465</v>
-      </c>
-      <c r="E155" s="10">
-        <v>465</v>
-      </c>
-      <c r="F155" s="10">
-        <v>566</v>
-      </c>
-      <c r="G155" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="9">
-        <v>70102</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="D156" s="10">
-        <v>465</v>
-      </c>
-      <c r="E156" s="10">
-        <v>465</v>
-      </c>
-      <c r="F156" s="10">
-        <v>566</v>
-      </c>
-      <c r="G156" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="9">
-        <v>70104</v>
-      </c>
       <c r="B157" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="D157" s="9">
-        <v>566</v>
-      </c>
-      <c r="E157" s="9">
-        <v>25272</v>
-      </c>
-      <c r="F157" s="9">
-        <v>465</v>
-      </c>
-      <c r="G157" s="9">
-        <v>465</v>
+        <v>1</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D157" s="10">
+        <v>465</v>
+      </c>
+      <c r="E157" s="10">
+        <v>465</v>
+      </c>
+      <c r="F157" s="10">
+        <v>566</v>
+      </c>
+      <c r="G157" s="10">
+        <v>25272</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="9">
-        <v>70201</v>
+        <v>70102</v>
       </c>
       <c r="B158" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D158" s="10">
         <v>465</v>
@@ -5238,38 +5263,38 @@
         <v>25272</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="9">
-        <v>70202</v>
+        <v>70104</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D159" s="10">
-        <v>25375</v>
-      </c>
-      <c r="E159" s="10">
-        <v>25375</v>
-      </c>
-      <c r="F159" s="10">
-        <v>465</v>
-      </c>
-      <c r="G159" s="10">
+        <v>359</v>
+      </c>
+      <c r="D159" s="9">
+        <v>566</v>
+      </c>
+      <c r="E159" s="9">
+        <v>25272</v>
+      </c>
+      <c r="F159" s="9">
+        <v>465</v>
+      </c>
+      <c r="G159" s="9">
         <v>465</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="9">
-        <v>70203</v>
+        <v>70201</v>
       </c>
       <c r="B160" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D160" s="10">
         <v>465</v>
@@ -5286,36 +5311,36 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="9">
-        <v>70241</v>
+        <v>70202</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C161" s="16" t="s">
-        <v>184</v>
+        <v>90</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="D161" s="10">
-        <v>465</v>
+        <v>25375</v>
       </c>
       <c r="E161" s="10">
-        <v>465</v>
+        <v>25375</v>
       </c>
       <c r="F161" s="10">
-        <v>566</v>
+        <v>465</v>
       </c>
       <c r="G161" s="10">
-        <v>25272</v>
+        <v>465</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="10">
-        <v>70505</v>
+      <c r="A162" s="9">
+        <v>70203</v>
       </c>
       <c r="B162" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C162" s="16" t="s">
-        <v>185</v>
+      <c r="C162" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="D162" s="10">
         <v>465</v>
@@ -5332,13 +5357,13 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="9">
-        <v>70507</v>
+        <v>70241</v>
       </c>
       <c r="B163" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D163" s="10">
         <v>465</v>
@@ -5355,13 +5380,13 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="10">
-        <v>70551</v>
+        <v>70505</v>
       </c>
       <c r="B164" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D164" s="10">
         <v>465</v>
@@ -5378,13 +5403,13 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="9">
-        <v>70601</v>
+        <v>70507</v>
       </c>
       <c r="B165" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C165" s="9" t="s">
-        <v>188</v>
+      <c r="C165" s="16" t="s">
+        <v>185</v>
       </c>
       <c r="D165" s="10">
         <v>465</v>
@@ -5400,14 +5425,14 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="9">
-        <v>70791</v>
+      <c r="A166" s="10">
+        <v>70551</v>
       </c>
       <c r="B166" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C166" s="9" t="s">
-        <v>189</v>
+      <c r="C166" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="D166" s="10">
         <v>465</v>
@@ -5424,59 +5449,59 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="9">
+        <v>70601</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D167" s="10">
+        <v>465</v>
+      </c>
+      <c r="E167" s="10">
+        <v>465</v>
+      </c>
+      <c r="F167" s="10">
+        <v>566</v>
+      </c>
+      <c r="G167" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="9">
+        <v>70791</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D168" s="10">
+        <v>465</v>
+      </c>
+      <c r="E168" s="10">
+        <v>465</v>
+      </c>
+      <c r="F168" s="10">
+        <v>566</v>
+      </c>
+      <c r="G168" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="9">
         <v>70795</v>
       </c>
-      <c r="B167" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="D167" s="10">
-        <v>465</v>
-      </c>
-      <c r="E167" s="10">
-        <v>465</v>
-      </c>
-      <c r="F167" s="10">
-        <v>566</v>
-      </c>
-      <c r="G167" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="10">
-        <v>70796</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C168" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="D168" s="10">
-        <v>465</v>
-      </c>
-      <c r="E168" s="10">
-        <v>465</v>
-      </c>
-      <c r="F168" s="10">
-        <v>566</v>
-      </c>
-      <c r="G168" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="10">
-        <v>70801</v>
-      </c>
       <c r="B169" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C169" s="16" t="s">
-        <v>193</v>
+      <c r="C169" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="D169" s="10">
         <v>465</v>
@@ -5493,13 +5518,13 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="10">
-        <v>70851</v>
+        <v>70796</v>
       </c>
       <c r="B170" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D170" s="10">
         <v>465</v>
@@ -5516,13 +5541,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="10">
-        <v>70901</v>
+        <v>70801</v>
       </c>
       <c r="B171" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D171" s="10">
         <v>465</v>
@@ -5539,13 +5564,13 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="10">
-        <v>70951</v>
+        <v>70851</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D172" s="10">
         <v>465</v>
@@ -5562,13 +5587,13 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="10">
-        <v>71005</v>
+        <v>70901</v>
       </c>
       <c r="B173" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D173" s="10">
         <v>465</v>
@@ -5577,21 +5602,21 @@
         <v>465</v>
       </c>
       <c r="F173" s="10">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G173" s="10">
-        <v>25274</v>
+        <v>25272</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="10">
-        <v>71102</v>
+        <v>70951</v>
       </c>
       <c r="B174" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C174" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D174" s="10">
         <v>465</v>
@@ -5600,21 +5625,21 @@
         <v>465</v>
       </c>
       <c r="F174" s="10">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G174" s="10">
-        <v>25274</v>
+        <v>25272</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="9">
-        <v>71202</v>
+      <c r="A175" s="10">
+        <v>71005</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C175" s="9" t="s">
-        <v>199</v>
+      <c r="C175" s="16" t="s">
+        <v>196</v>
       </c>
       <c r="D175" s="10">
         <v>465</v>
@@ -5630,14 +5655,14 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="9">
-        <v>71403</v>
+      <c r="A176" s="10">
+        <v>71102</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C176" s="9" t="s">
-        <v>200</v>
+      <c r="C176" s="16" t="s">
+        <v>197</v>
       </c>
       <c r="D176" s="10">
         <v>465</v>
@@ -5653,14 +5678,14 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="10">
-        <v>71404</v>
+      <c r="A177" s="9">
+        <v>71202</v>
       </c>
       <c r="B177" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C177" s="16" t="s">
-        <v>201</v>
+      <c r="C177" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="D177" s="10">
         <v>465</v>
@@ -5677,13 +5702,13 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="9">
-        <v>71501</v>
+        <v>71403</v>
       </c>
       <c r="B178" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C178" s="16" t="s">
-        <v>202</v>
+      <c r="C178" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="D178" s="10">
         <v>465</v>
@@ -5699,14 +5724,14 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="9">
-        <v>71591</v>
+      <c r="A179" s="10">
+        <v>71404</v>
       </c>
       <c r="B179" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C179" s="9" t="s">
-        <v>203</v>
+      <c r="C179" s="16" t="s">
+        <v>200</v>
       </c>
       <c r="D179" s="10">
         <v>465</v>
@@ -5722,14 +5747,14 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="10">
-        <v>71602</v>
+      <c r="A180" s="9">
+        <v>71501</v>
       </c>
       <c r="B180" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D180" s="10">
         <v>465</v>
@@ -5745,14 +5770,14 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="10">
-        <v>71651</v>
+      <c r="A181" s="9">
+        <v>71591</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C181" s="16" t="s">
-        <v>205</v>
+      <c r="C181" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="D181" s="10">
         <v>465</v>
@@ -5769,13 +5794,13 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="10">
-        <v>71701</v>
+        <v>71602</v>
       </c>
       <c r="B182" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D182" s="10">
         <v>465</v>
@@ -5792,13 +5817,13 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="10">
-        <v>71751</v>
+        <v>71651</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D183" s="10">
         <v>465</v>
@@ -5815,13 +5840,13 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="10">
-        <v>71993</v>
+        <v>71701</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D184" s="10">
         <v>465</v>
@@ -5838,13 +5863,13 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="10">
-        <v>72003</v>
+        <v>71751</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D185" s="10">
         <v>465</v>
@@ -5861,13 +5886,13 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="10">
-        <v>72102</v>
+        <v>71993</v>
       </c>
       <c r="B186" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D186" s="10">
         <v>465</v>
@@ -5883,14 +5908,14 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="9">
-        <v>72202</v>
+      <c r="A187" s="10">
+        <v>72003</v>
       </c>
       <c r="B187" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C187" s="9" t="s">
-        <v>213</v>
+      <c r="C187" s="16" t="s">
+        <v>210</v>
       </c>
       <c r="D187" s="10">
         <v>465</v>
@@ -5906,14 +5931,14 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="9">
-        <v>72403</v>
+      <c r="A188" s="10">
+        <v>72102</v>
       </c>
       <c r="B188" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C188" s="9" t="s">
-        <v>214</v>
+      <c r="C188" s="16" t="s">
+        <v>211</v>
       </c>
       <c r="D188" s="10">
         <v>465</v>
@@ -5929,14 +5954,14 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="10">
-        <v>72404</v>
+      <c r="A189" s="9">
+        <v>72202</v>
       </c>
       <c r="B189" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C189" s="16" t="s">
-        <v>215</v>
+      <c r="C189" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="D189" s="10">
         <v>465</v>
@@ -5953,13 +5978,13 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="9">
-        <v>72501</v>
+        <v>72403</v>
       </c>
       <c r="B190" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C190" s="16" t="s">
-        <v>216</v>
+      <c r="C190" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="D190" s="10">
         <v>465</v>
@@ -5975,14 +6000,14 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="9">
-        <v>72591</v>
+      <c r="A191" s="10">
+        <v>72404</v>
       </c>
       <c r="B191" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C191" s="9" t="s">
-        <v>217</v>
+      <c r="C191" s="16" t="s">
+        <v>214</v>
       </c>
       <c r="D191" s="10">
         <v>465</v>
@@ -5998,14 +6023,14 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="10">
-        <v>72602</v>
+      <c r="A192" s="9">
+        <v>72501</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D192" s="10">
         <v>465</v>
@@ -6021,14 +6046,14 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="10">
-        <v>72651</v>
+      <c r="A193" s="9">
+        <v>72591</v>
       </c>
       <c r="B193" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C193" s="16" t="s">
-        <v>219</v>
+      <c r="C193" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="D193" s="10">
         <v>465</v>
@@ -6045,13 +6070,13 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="10">
-        <v>72701</v>
+        <v>72602</v>
       </c>
       <c r="B194" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D194" s="10">
         <v>465</v>
@@ -6068,13 +6093,13 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="10">
-        <v>72751</v>
+        <v>72651</v>
       </c>
       <c r="B195" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C195" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D195" s="10">
         <v>465</v>
@@ -6091,13 +6116,13 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="10">
-        <v>72993</v>
+        <v>72701</v>
       </c>
       <c r="B196" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C196" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D196" s="10">
         <v>465</v>
@@ -6114,13 +6139,13 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="10">
-        <v>73005</v>
+        <v>72751</v>
       </c>
       <c r="B197" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C197" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D197" s="10">
         <v>465</v>
@@ -6137,13 +6162,13 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="10">
-        <v>73102</v>
+        <v>72993</v>
       </c>
       <c r="B198" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C198" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D198" s="10">
         <v>465</v>
@@ -6159,14 +6184,14 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="9">
-        <v>73202</v>
+      <c r="A199" s="10">
+        <v>73005</v>
       </c>
       <c r="B199" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C199" s="9" t="s">
-        <v>225</v>
+      <c r="C199" s="16" t="s">
+        <v>222</v>
       </c>
       <c r="D199" s="10">
         <v>465</v>
@@ -6182,14 +6207,14 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="9">
-        <v>73403</v>
+      <c r="A200" s="10">
+        <v>73102</v>
       </c>
       <c r="B200" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C200" s="9" t="s">
-        <v>226</v>
+      <c r="C200" s="16" t="s">
+        <v>223</v>
       </c>
       <c r="D200" s="10">
         <v>465</v>
@@ -6205,14 +6230,14 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="10">
-        <v>73404</v>
+      <c r="A201" s="9">
+        <v>73202</v>
       </c>
       <c r="B201" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C201" s="16" t="s">
-        <v>227</v>
+      <c r="C201" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="D201" s="10">
         <v>465</v>
@@ -6229,13 +6254,13 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="9">
-        <v>73501</v>
+        <v>73403</v>
       </c>
       <c r="B202" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C202" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D202" s="10">
         <v>465</v>
@@ -6251,14 +6276,14 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="9">
-        <v>73591</v>
+      <c r="A203" s="10">
+        <v>73404</v>
       </c>
       <c r="B203" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C203" s="9" t="s">
-        <v>229</v>
+      <c r="C203" s="16" t="s">
+        <v>226</v>
       </c>
       <c r="D203" s="10">
         <v>465</v>
@@ -6267,21 +6292,21 @@
         <v>465</v>
       </c>
       <c r="F203" s="10">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G203" s="10">
-        <v>25273</v>
+        <v>25274</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="10">
-        <v>73602</v>
+      <c r="A204" s="9">
+        <v>73501</v>
       </c>
       <c r="B204" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C204" s="16" t="s">
-        <v>230</v>
+      <c r="C204" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="D204" s="10">
         <v>465</v>
@@ -6297,14 +6322,14 @@
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="10">
-        <v>73651</v>
+      <c r="A205" s="9">
+        <v>73591</v>
       </c>
       <c r="B205" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C205" s="16" t="s">
-        <v>231</v>
+      <c r="C205" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="D205" s="10">
         <v>465</v>
@@ -6313,21 +6338,21 @@
         <v>465</v>
       </c>
       <c r="F205" s="10">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G205" s="10">
-        <v>25274</v>
+        <v>25273</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="10">
-        <v>73701</v>
+        <v>73602</v>
       </c>
       <c r="B206" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C206" s="16" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D206" s="10">
         <v>465</v>
@@ -6344,13 +6369,13 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="10">
-        <v>73751</v>
+        <v>73651</v>
       </c>
       <c r="B207" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C207" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D207" s="10">
         <v>465</v>
@@ -6367,13 +6392,13 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="10">
-        <v>73993</v>
+        <v>73701</v>
       </c>
       <c r="B208" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C208" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D208" s="10">
         <v>465</v>
@@ -6388,130 +6413,130 @@
         <v>25274</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="9">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="10">
+        <v>73751</v>
+      </c>
+      <c r="B209" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="D209" s="10">
+        <v>465</v>
+      </c>
+      <c r="E209" s="10">
+        <v>465</v>
+      </c>
+      <c r="F209" s="10">
+        <v>568</v>
+      </c>
+      <c r="G209" s="10">
+        <v>25274</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="10">
+        <v>73993</v>
+      </c>
+      <c r="B210" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D210" s="10">
+        <v>465</v>
+      </c>
+      <c r="E210" s="10">
+        <v>465</v>
+      </c>
+      <c r="F210" s="10">
+        <v>568</v>
+      </c>
+      <c r="G210" s="10">
+        <v>25274</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="9">
         <v>76965</v>
       </c>
-      <c r="B209" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C209" s="9" t="s">
+      <c r="B211" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D211" s="10">
+        <v>413</v>
+      </c>
+      <c r="E211" s="10">
+        <v>413</v>
+      </c>
+      <c r="F211" s="10">
+        <v>465</v>
+      </c>
+      <c r="G211" s="10">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="9">
+        <v>76975</v>
+      </c>
+      <c r="B212" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C212" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="D209" s="10">
-        <v>413</v>
-      </c>
-      <c r="E209" s="10">
-        <v>413</v>
-      </c>
-      <c r="F209" s="10">
-        <v>465</v>
-      </c>
-      <c r="G209" s="10">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="9">
-        <v>76975</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C210" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D210" s="10">
-        <v>569</v>
-      </c>
-      <c r="E210" s="10">
+      <c r="D212" s="10">
+        <v>569</v>
+      </c>
+      <c r="E212" s="10">
         <v>25273</v>
       </c>
-      <c r="F210" s="10">
-        <v>465</v>
-      </c>
-      <c r="G210" s="10">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="10">
+      <c r="F212" s="10">
+        <v>465</v>
+      </c>
+      <c r="G212" s="10">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="10">
         <v>75005</v>
       </c>
-      <c r="B211" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C211" s="16" t="s">
+      <c r="B213" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D213" s="10">
+        <v>465</v>
+      </c>
+      <c r="E213" s="10">
+        <v>465</v>
+      </c>
+      <c r="F213" s="10">
+        <v>569</v>
+      </c>
+      <c r="G213" s="10">
+        <v>25273</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="10">
+        <v>75102</v>
+      </c>
+      <c r="B214" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" s="16" t="s">
         <v>235</v>
-      </c>
-      <c r="D211" s="10">
-        <v>465</v>
-      </c>
-      <c r="E211" s="10">
-        <v>465</v>
-      </c>
-      <c r="F211" s="10">
-        <v>569</v>
-      </c>
-      <c r="G211" s="10">
-        <v>25273</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="10">
-        <v>75102</v>
-      </c>
-      <c r="B212" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C212" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="D212" s="10">
-        <v>465</v>
-      </c>
-      <c r="E212" s="10">
-        <v>465</v>
-      </c>
-      <c r="F212" s="10">
-        <v>569</v>
-      </c>
-      <c r="G212" s="10">
-        <v>25273</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="9">
-        <v>78995</v>
-      </c>
-      <c r="B213" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C213" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="D213" s="10">
-        <v>569</v>
-      </c>
-      <c r="E213" s="10">
-        <v>25273</v>
-      </c>
-      <c r="F213" s="10">
-        <v>465</v>
-      </c>
-      <c r="G213" s="10">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="9">
-        <v>75202</v>
-      </c>
-      <c r="B214" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C214" s="9" t="s">
-        <v>238</v>
       </c>
       <c r="D214" s="10">
         <v>465</v>
@@ -6526,38 +6551,38 @@
         <v>25273</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="9">
-        <v>79995</v>
+        <v>78995</v>
       </c>
       <c r="B215" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C215" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D215" s="10">
-        <v>465</v>
+        <v>569</v>
       </c>
       <c r="E215" s="10">
-        <v>465</v>
+        <v>25273</v>
       </c>
       <c r="F215" s="10">
-        <v>566</v>
+        <v>465</v>
       </c>
       <c r="G215" s="10">
-        <v>25272</v>
+        <v>465</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="9">
-        <v>75403</v>
+        <v>75202</v>
       </c>
       <c r="B216" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C216" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D216" s="10">
         <v>465</v>
@@ -6573,14 +6598,14 @@
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="10">
-        <v>75404</v>
+      <c r="A217" s="9">
+        <v>79995</v>
       </c>
       <c r="B217" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C217" s="16" t="s">
-        <v>241</v>
+        <v>90</v>
+      </c>
+      <c r="C217" s="9" t="s">
+        <v>267</v>
       </c>
       <c r="D217" s="10">
         <v>465</v>
@@ -6589,21 +6614,21 @@
         <v>465</v>
       </c>
       <c r="F217" s="10">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G217" s="10">
-        <v>25273</v>
+        <v>25272</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="9">
-        <v>75501</v>
+        <v>75403</v>
       </c>
       <c r="B218" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C218" s="16" t="s">
-        <v>242</v>
+      <c r="C218" s="9" t="s">
+        <v>239</v>
       </c>
       <c r="D218" s="10">
         <v>465</v>
@@ -6619,14 +6644,14 @@
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="9">
-        <v>75591</v>
+      <c r="A219" s="10">
+        <v>75404</v>
       </c>
       <c r="B219" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C219" s="9" t="s">
-        <v>243</v>
+      <c r="C219" s="16" t="s">
+        <v>240</v>
       </c>
       <c r="D219" s="10">
         <v>465</v>
@@ -6642,14 +6667,14 @@
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="10">
-        <v>75602</v>
+      <c r="A220" s="9">
+        <v>75501</v>
       </c>
       <c r="B220" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C220" s="16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D220" s="10">
         <v>465</v>
@@ -6665,14 +6690,14 @@
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="10">
-        <v>75651</v>
+      <c r="A221" s="9">
+        <v>75591</v>
       </c>
       <c r="B221" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C221" s="16" t="s">
-        <v>245</v>
+      <c r="C221" s="9" t="s">
+        <v>242</v>
       </c>
       <c r="D221" s="10">
         <v>465</v>
@@ -6689,13 +6714,13 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="10">
-        <v>75701</v>
+        <v>75602</v>
       </c>
       <c r="B222" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C222" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D222" s="10">
         <v>465</v>
@@ -6712,13 +6737,13 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="10">
-        <v>75751</v>
+        <v>75651</v>
       </c>
       <c r="B223" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C223" s="16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D223" s="10">
         <v>465</v>
@@ -6735,13 +6760,13 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="10">
-        <v>76003</v>
+        <v>75701</v>
       </c>
       <c r="B224" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C224" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D224" s="10">
         <v>465</v>
@@ -6758,13 +6783,13 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="10">
-        <v>76102</v>
+        <v>75751</v>
       </c>
       <c r="B225" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C225" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D225" s="10">
         <v>465</v>
@@ -6780,14 +6805,14 @@
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="9">
-        <v>76202</v>
+      <c r="A226" s="10">
+        <v>76003</v>
       </c>
       <c r="B226" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C226" s="9" t="s">
-        <v>250</v>
+      <c r="C226" s="16" t="s">
+        <v>247</v>
       </c>
       <c r="D226" s="10">
         <v>465</v>
@@ -6803,14 +6828,14 @@
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="9">
-        <v>76403</v>
+      <c r="A227" s="10">
+        <v>76102</v>
       </c>
       <c r="B227" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C227" s="9" t="s">
-        <v>251</v>
+      <c r="C227" s="16" t="s">
+        <v>248</v>
       </c>
       <c r="D227" s="10">
         <v>465</v>
@@ -6826,14 +6851,14 @@
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="10">
-        <v>76404</v>
+      <c r="A228" s="9">
+        <v>76202</v>
       </c>
       <c r="B228" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C228" s="16" t="s">
-        <v>252</v>
+      <c r="C228" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="D228" s="10">
         <v>465</v>
@@ -6850,13 +6875,13 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="9">
-        <v>76501</v>
+        <v>76403</v>
       </c>
       <c r="B229" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C229" s="16" t="s">
-        <v>255</v>
+      <c r="C229" s="9" t="s">
+        <v>250</v>
       </c>
       <c r="D229" s="10">
         <v>465</v>
@@ -6872,14 +6897,14 @@
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="9">
-        <v>76591</v>
+      <c r="A230" s="10">
+        <v>76404</v>
       </c>
       <c r="B230" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C230" s="9" t="s">
-        <v>256</v>
+      <c r="C230" s="16" t="s">
+        <v>251</v>
       </c>
       <c r="D230" s="10">
         <v>465</v>
@@ -6895,14 +6920,14 @@
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="10">
-        <v>76602</v>
+      <c r="A231" s="9">
+        <v>76501</v>
       </c>
       <c r="B231" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D231" s="10">
         <v>465</v>
@@ -6918,14 +6943,14 @@
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="10">
-        <v>76651</v>
+      <c r="A232" s="9">
+        <v>76591</v>
       </c>
       <c r="B232" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C232" s="16" t="s">
-        <v>258</v>
+      <c r="C232" s="9" t="s">
+        <v>255</v>
       </c>
       <c r="D232" s="10">
         <v>465</v>
@@ -6942,13 +6967,13 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="10">
-        <v>76701</v>
+        <v>76602</v>
       </c>
       <c r="B233" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C233" s="16" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D233" s="10">
         <v>465</v>
@@ -6965,13 +6990,13 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="10">
-        <v>76751</v>
+        <v>76651</v>
       </c>
       <c r="B234" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C234" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D234" s="10">
         <v>465</v>
@@ -6987,14 +7012,14 @@
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="9">
-        <v>76985</v>
+      <c r="A235" s="10">
+        <v>76701</v>
       </c>
       <c r="B235" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C235" s="9" t="s">
-        <v>264</v>
+      <c r="C235" s="16" t="s">
+        <v>259</v>
       </c>
       <c r="D235" s="10">
         <v>465</v>
@@ -7010,14 +7035,14 @@
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="9">
-        <v>78005</v>
+      <c r="A236" s="10">
+        <v>76751</v>
       </c>
       <c r="B236" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C236" s="9" t="s">
-        <v>265</v>
+      <c r="C236" s="16" t="s">
+        <v>260</v>
       </c>
       <c r="D236" s="10">
         <v>465</v>
@@ -7034,36 +7059,36 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="9">
-        <v>79005</v>
+        <v>76985</v>
       </c>
       <c r="B237" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C237" s="9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D237" s="10">
-        <v>566</v>
+        <v>465</v>
       </c>
       <c r="E237" s="10">
-        <v>25272</v>
+        <v>465</v>
       </c>
       <c r="F237" s="10">
-        <v>465</v>
+        <v>569</v>
       </c>
       <c r="G237" s="10">
-        <v>465</v>
+        <v>25273</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="10">
-        <v>80505</v>
+      <c r="A238" s="9">
+        <v>78005</v>
       </c>
       <c r="B238" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C238" s="16" t="s">
-        <v>269</v>
+      <c r="C238" s="9" t="s">
+        <v>264</v>
       </c>
       <c r="D238" s="10">
         <v>465</v>
@@ -7072,21 +7097,21 @@
         <v>465</v>
       </c>
       <c r="F238" s="10">
-        <v>474</v>
+        <v>569</v>
       </c>
       <c r="G238" s="10">
-        <v>474</v>
+        <v>25273</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="10">
-        <v>80532</v>
+      <c r="A239" s="9">
+        <v>78102</v>
       </c>
       <c r="B239" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C239" s="16" t="s">
-        <v>270</v>
+      <c r="C239" s="9" t="s">
+        <v>368</v>
       </c>
       <c r="D239" s="10">
         <v>465</v>
@@ -7095,44 +7120,44 @@
         <v>465</v>
       </c>
       <c r="F239" s="10">
-        <v>474</v>
+        <v>569</v>
       </c>
       <c r="G239" s="10">
-        <v>474</v>
+        <v>25273</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="9">
-        <v>80623</v>
+        <v>79005</v>
       </c>
       <c r="B240" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D240" s="10">
-        <v>465</v>
+        <v>566</v>
       </c>
       <c r="E240" s="10">
-        <v>465</v>
+        <v>25272</v>
       </c>
       <c r="F240" s="10">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G240" s="10">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="9">
-        <v>80624</v>
+      <c r="A241" s="10">
+        <v>80505</v>
       </c>
       <c r="B241" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C241" s="9" t="s">
-        <v>272</v>
+      <c r="C241" s="16" t="s">
+        <v>268</v>
       </c>
       <c r="D241" s="10">
         <v>465</v>
@@ -7148,14 +7173,14 @@
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="9">
-        <v>80651</v>
+      <c r="A242" s="10">
+        <v>80532</v>
       </c>
       <c r="B242" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C242" s="9" t="s">
-        <v>273</v>
+      <c r="C242" s="16" t="s">
+        <v>269</v>
       </c>
       <c r="D242" s="10">
         <v>465</v>
@@ -7172,13 +7197,13 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="9">
-        <v>80654</v>
+        <v>80623</v>
       </c>
       <c r="B243" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C243" s="9" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D243" s="10">
         <v>465</v>
@@ -7193,38 +7218,38 @@
         <v>474</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="10">
-        <v>89405</v>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="9">
+        <v>80624</v>
       </c>
       <c r="B244" s="9" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="C244" s="9" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="D244" s="10">
-        <v>566</v>
+        <v>465</v>
       </c>
       <c r="E244" s="10">
-        <v>25272</v>
+        <v>465</v>
       </c>
       <c r="F244" s="10">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="G244" s="10">
-        <v>465</v>
+        <v>474</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="10">
-        <v>80702</v>
+      <c r="A245" s="9">
+        <v>80651</v>
       </c>
       <c r="B245" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C245" s="16" t="s">
-        <v>275</v>
+      <c r="C245" s="9" t="s">
+        <v>272</v>
       </c>
       <c r="D245" s="10">
         <v>465</v>
@@ -7239,222 +7264,222 @@
         <v>474</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="9">
+        <v>80654</v>
+      </c>
+      <c r="B246" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D246" s="10">
+        <v>465</v>
+      </c>
+      <c r="E246" s="10">
+        <v>465</v>
+      </c>
+      <c r="F246" s="10">
+        <v>474</v>
+      </c>
+      <c r="G246" s="10">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="10">
+        <v>89405</v>
+      </c>
+      <c r="B247" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D247" s="10">
+        <v>566</v>
+      </c>
+      <c r="E247" s="10">
+        <v>25272</v>
+      </c>
+      <c r="F247" s="10">
+        <v>465</v>
+      </c>
+      <c r="G247" s="10">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="10">
+        <v>80702</v>
+      </c>
+      <c r="B248" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C248" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="D248" s="10">
+        <v>465</v>
+      </c>
+      <c r="E248" s="10">
+        <v>465</v>
+      </c>
+      <c r="F248" s="10">
+        <v>474</v>
+      </c>
+      <c r="G248" s="10">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="9">
         <v>90353</v>
       </c>
-      <c r="B246" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C246" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="D246" s="10">
-        <v>566</v>
-      </c>
-      <c r="E246" s="10">
-        <v>25272</v>
-      </c>
-      <c r="F246" s="10">
-        <v>465</v>
-      </c>
-      <c r="G246" s="10">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="9">
+      <c r="B249" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D249" s="10">
+        <v>566</v>
+      </c>
+      <c r="E249" s="10">
+        <v>25272</v>
+      </c>
+      <c r="F249" s="10">
+        <v>465</v>
+      </c>
+      <c r="G249" s="10">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" s="9">
         <v>91035</v>
       </c>
-      <c r="B247" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C247" s="9" t="s">
+      <c r="B250" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D250" s="10">
+        <v>474</v>
+      </c>
+      <c r="E250" s="10">
+        <v>474</v>
+      </c>
+      <c r="F250" s="10">
+        <v>468</v>
+      </c>
+      <c r="G250" s="10">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" s="10">
+        <v>91045</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C251" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="D247" s="10">
+      <c r="D251" s="10">
         <v>474</v>
       </c>
-      <c r="E247" s="10">
+      <c r="E251" s="10">
         <v>474</v>
       </c>
-      <c r="F247" s="10">
+      <c r="F251" s="10">
+        <v>465</v>
+      </c>
+      <c r="G251" s="10">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" s="9">
+        <v>91535</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="D252" s="10">
+        <v>476</v>
+      </c>
+      <c r="E252" s="10">
+        <v>476</v>
+      </c>
+      <c r="F252" s="10">
         <v>468</v>
       </c>
-      <c r="G247" s="10">
+      <c r="G252" s="10">
         <v>468</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="10">
-        <v>91045</v>
-      </c>
-      <c r="B248" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C248" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="D248" s="10">
-        <v>474</v>
-      </c>
-      <c r="E248" s="10">
-        <v>474</v>
-      </c>
-      <c r="F248" s="10">
-        <v>465</v>
-      </c>
-      <c r="G248" s="10">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="9">
-        <v>91535</v>
-      </c>
-      <c r="B249" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C249" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="D249" s="10">
-        <v>476</v>
-      </c>
-      <c r="E249" s="10">
-        <v>476</v>
-      </c>
-      <c r="F249" s="10">
-        <v>468</v>
-      </c>
-      <c r="G249" s="10">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="10">
-        <v>91545</v>
-      </c>
-      <c r="B250" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C250" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="D250" s="10">
-        <v>476</v>
-      </c>
-      <c r="E250" s="10">
-        <v>476</v>
-      </c>
-      <c r="F250" s="10">
-        <v>465</v>
-      </c>
-      <c r="G250" s="10">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="9">
-        <v>91605</v>
-      </c>
-      <c r="B251" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C251" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="D251" s="10">
-        <v>476</v>
-      </c>
-      <c r="E251" s="10">
-        <v>476</v>
-      </c>
-      <c r="F251" s="10">
-        <v>465</v>
-      </c>
-      <c r="G251" s="10">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="10">
-        <v>80731</v>
-      </c>
-      <c r="B252" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C252" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="D252" s="10">
-        <v>465</v>
-      </c>
-      <c r="E252" s="10">
-        <v>465</v>
-      </c>
-      <c r="F252" s="10">
-        <v>474</v>
-      </c>
-      <c r="G252" s="10">
-        <v>474</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="10">
-        <v>80761</v>
+        <v>91545</v>
       </c>
       <c r="B253" s="9" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C253" s="9" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="D253" s="10">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="E253" s="10">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="F253" s="10">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G253" s="10">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="10">
-        <v>80791</v>
+      <c r="A254" s="9">
+        <v>91605</v>
       </c>
       <c r="B254" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C254" s="9" t="s">
-        <v>278</v>
+        <v>90</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>328</v>
       </c>
       <c r="D254" s="10">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="E254" s="10">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="F254" s="10">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="G254" s="10">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="10">
-        <v>81005</v>
+        <v>80731</v>
       </c>
       <c r="B255" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D255" s="10">
         <v>465</v>
@@ -7463,21 +7488,21 @@
         <v>465</v>
       </c>
       <c r="F255" s="10">
-        <v>566</v>
+        <v>474</v>
       </c>
       <c r="G255" s="10">
-        <v>25272</v>
+        <v>474</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="9">
-        <v>81032</v>
+      <c r="A256" s="10">
+        <v>80761</v>
       </c>
       <c r="B256" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C256" s="9" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D256" s="10">
         <v>465</v>
@@ -7486,21 +7511,21 @@
         <v>465</v>
       </c>
       <c r="F256" s="10">
-        <v>566</v>
+        <v>474</v>
       </c>
       <c r="G256" s="10">
-        <v>25272</v>
+        <v>474</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="9">
-        <v>81124</v>
+      <c r="A257" s="10">
+        <v>80791</v>
       </c>
       <c r="B257" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C257" s="9" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D257" s="10">
         <v>465</v>
@@ -7509,21 +7534,21 @@
         <v>465</v>
       </c>
       <c r="F257" s="10">
-        <v>566</v>
+        <v>474</v>
       </c>
       <c r="G257" s="10">
-        <v>25272</v>
+        <v>474</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="10">
-        <v>81153</v>
+        <v>81005</v>
       </c>
       <c r="B258" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C258" s="9" t="s">
-        <v>286</v>
+      <c r="C258" s="16" t="s">
+        <v>282</v>
       </c>
       <c r="D258" s="10">
         <v>465</v>
@@ -7540,13 +7565,13 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="9">
-        <v>81202</v>
+        <v>81032</v>
       </c>
       <c r="B259" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C259" s="16" t="s">
-        <v>287</v>
+      <c r="C259" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="D259" s="10">
         <v>465</v>
@@ -7563,13 +7588,13 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="9">
-        <v>81231</v>
+        <v>81124</v>
       </c>
       <c r="B260" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C260" s="16" t="s">
-        <v>288</v>
+      <c r="C260" s="9" t="s">
+        <v>284</v>
       </c>
       <c r="D260" s="10">
         <v>465</v>
@@ -7585,14 +7610,14 @@
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="9">
-        <v>81261</v>
+      <c r="A261" s="10">
+        <v>81153</v>
       </c>
       <c r="B261" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C261" s="16" t="s">
-        <v>289</v>
+      <c r="C261" s="9" t="s">
+        <v>285</v>
       </c>
       <c r="D261" s="10">
         <v>465</v>
@@ -7609,13 +7634,13 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="9">
-        <v>81291</v>
+        <v>81202</v>
       </c>
       <c r="B262" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C262" s="16" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D262" s="10">
         <v>465</v>
@@ -7632,13 +7657,13 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="9">
-        <v>81505</v>
+        <v>81231</v>
       </c>
       <c r="B263" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C263" s="16" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="D263" s="10">
         <v>465</v>
@@ -7655,13 +7680,13 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="9">
-        <v>81532</v>
+        <v>81261</v>
       </c>
       <c r="B264" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C264" s="9" t="s">
-        <v>297</v>
+      <c r="C264" s="16" t="s">
+        <v>288</v>
       </c>
       <c r="D264" s="10">
         <v>465</v>
@@ -7678,13 +7703,13 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="9">
-        <v>81534</v>
+        <v>81291</v>
       </c>
       <c r="B265" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C265" s="9" t="s">
-        <v>298</v>
+      <c r="C265" s="16" t="s">
+        <v>289</v>
       </c>
       <c r="D265" s="10">
         <v>465</v>
@@ -7701,13 +7726,13 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="9">
-        <v>81535</v>
+        <v>81505</v>
       </c>
       <c r="B266" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C266" s="9" t="s">
-        <v>299</v>
+      <c r="C266" s="16" t="s">
+        <v>292</v>
       </c>
       <c r="D266" s="10">
         <v>465</v>
@@ -7724,13 +7749,13 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="9">
-        <v>81537</v>
+        <v>81532</v>
       </c>
       <c r="B267" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C267" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D267" s="10">
         <v>465</v>
@@ -7747,13 +7772,13 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="9">
-        <v>81562</v>
+        <v>81534</v>
       </c>
       <c r="B268" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C268" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D268" s="10">
         <v>465</v>
@@ -7770,13 +7795,13 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="9">
-        <v>81623</v>
+        <v>81535</v>
       </c>
       <c r="B269" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C269" s="9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D269" s="10">
         <v>465</v>
@@ -7792,14 +7817,14 @@
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="10">
-        <v>81624</v>
+      <c r="A270" s="9">
+        <v>81537</v>
       </c>
       <c r="B270" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C270" s="16" t="s">
-        <v>303</v>
+      <c r="C270" s="9" t="s">
+        <v>299</v>
       </c>
       <c r="D270" s="10">
         <v>465</v>
@@ -7816,13 +7841,13 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="9">
-        <v>81651</v>
+        <v>81562</v>
       </c>
       <c r="B271" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C271" s="16" t="s">
-        <v>304</v>
+      <c r="C271" s="9" t="s">
+        <v>300</v>
       </c>
       <c r="D271" s="10">
         <v>465</v>
@@ -7838,14 +7863,14 @@
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="10">
-        <v>83005</v>
+      <c r="A272" s="9">
+        <v>81623</v>
       </c>
       <c r="B272" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C272" s="16" t="s">
-        <v>305</v>
+      <c r="C272" s="9" t="s">
+        <v>301</v>
       </c>
       <c r="D272" s="10">
         <v>465</v>
@@ -7861,14 +7886,14 @@
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="9">
-        <v>83032</v>
+      <c r="A273" s="10">
+        <v>81624</v>
       </c>
       <c r="B273" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C273" s="16" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D273" s="10">
         <v>465</v>
@@ -7877,113 +7902,113 @@
         <v>465</v>
       </c>
       <c r="F273" s="10">
-        <v>25283</v>
+        <v>566</v>
       </c>
       <c r="G273" s="10">
-        <v>25281</v>
+        <v>25272</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="9">
+        <v>81651</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C274" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D274" s="10">
+        <v>465</v>
+      </c>
+      <c r="E274" s="10">
+        <v>465</v>
+      </c>
+      <c r="F274" s="10">
+        <v>566</v>
+      </c>
+      <c r="G274" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="10">
+        <v>83005</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C275" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="D275" s="10">
+        <v>465</v>
+      </c>
+      <c r="E275" s="10">
+        <v>465</v>
+      </c>
+      <c r="F275" s="10">
+        <v>566</v>
+      </c>
+      <c r="G275" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="9">
+        <v>83032</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C276" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D276" s="10">
+        <v>465</v>
+      </c>
+      <c r="E276" s="10">
+        <v>465</v>
+      </c>
+      <c r="F276" s="10">
+        <v>25283</v>
+      </c>
+      <c r="G276" s="10">
+        <v>25281</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="9">
         <v>83124</v>
       </c>
-      <c r="B274" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C274" s="9" t="s">
+      <c r="B277" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="D277" s="10">
+        <v>465</v>
+      </c>
+      <c r="E277" s="10">
+        <v>465</v>
+      </c>
+      <c r="F277" s="10">
+        <v>566</v>
+      </c>
+      <c r="G277" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="9">
+        <v>83151</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C278" s="16" t="s">
         <v>307</v>
-      </c>
-      <c r="D274" s="10">
-        <v>465</v>
-      </c>
-      <c r="E274" s="10">
-        <v>465</v>
-      </c>
-      <c r="F274" s="10">
-        <v>566</v>
-      </c>
-      <c r="G274" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="9">
-        <v>83151</v>
-      </c>
-      <c r="B275" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C275" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="D275" s="10">
-        <v>465</v>
-      </c>
-      <c r="E275" s="10">
-        <v>465</v>
-      </c>
-      <c r="F275" s="10">
-        <v>566</v>
-      </c>
-      <c r="G275" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="10">
-        <v>83202</v>
-      </c>
-      <c r="B276" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C276" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D276" s="10">
-        <v>465</v>
-      </c>
-      <c r="E276" s="10">
-        <v>465</v>
-      </c>
-      <c r="F276" s="10">
-        <v>566</v>
-      </c>
-      <c r="G276" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="10">
-        <v>83231</v>
-      </c>
-      <c r="B277" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C277" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="D277" s="10">
-        <v>465</v>
-      </c>
-      <c r="E277" s="10">
-        <v>465</v>
-      </c>
-      <c r="F277" s="10">
-        <v>566</v>
-      </c>
-      <c r="G277" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="10">
-        <v>83261</v>
-      </c>
-      <c r="B278" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C278" s="16" t="s">
-        <v>311</v>
       </c>
       <c r="D278" s="10">
         <v>465</v>
@@ -8000,82 +8025,82 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="10">
+        <v>83202</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C279" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="D279" s="10">
+        <v>465</v>
+      </c>
+      <c r="E279" s="10">
+        <v>465</v>
+      </c>
+      <c r="F279" s="10">
+        <v>566</v>
+      </c>
+      <c r="G279" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="10">
+        <v>83231</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C280" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D280" s="10">
+        <v>465</v>
+      </c>
+      <c r="E280" s="10">
+        <v>465</v>
+      </c>
+      <c r="F280" s="10">
+        <v>566</v>
+      </c>
+      <c r="G280" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="10">
+        <v>83261</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C281" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="D281" s="10">
+        <v>465</v>
+      </c>
+      <c r="E281" s="10">
+        <v>465</v>
+      </c>
+      <c r="F281" s="10">
+        <v>566</v>
+      </c>
+      <c r="G281" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="10">
         <v>83291</v>
       </c>
-      <c r="B279" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C279" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="D279" s="10">
-        <v>465</v>
-      </c>
-      <c r="E279" s="10">
-        <v>465</v>
-      </c>
-      <c r="F279" s="10">
-        <v>566</v>
-      </c>
-      <c r="G279" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" s="9">
-        <v>83505</v>
-      </c>
-      <c r="B280" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C280" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="D280" s="10">
-        <v>465</v>
-      </c>
-      <c r="E280" s="10">
-        <v>465</v>
-      </c>
-      <c r="F280" s="10">
-        <v>566</v>
-      </c>
-      <c r="G280" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="9">
-        <v>83532</v>
-      </c>
-      <c r="B281" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C281" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="D281" s="10">
-        <v>465</v>
-      </c>
-      <c r="E281" s="10">
-        <v>465</v>
-      </c>
-      <c r="F281" s="10">
-        <v>566</v>
-      </c>
-      <c r="G281" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="9">
-        <v>83562</v>
-      </c>
       <c r="B282" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C282" s="9" t="s">
-        <v>315</v>
+      <c r="C282" s="16" t="s">
+        <v>311</v>
       </c>
       <c r="D282" s="10">
         <v>465</v>
@@ -8092,13 +8117,13 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="9">
-        <v>83624</v>
+        <v>83505</v>
       </c>
       <c r="B283" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C283" s="9" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="D283" s="10">
         <v>465</v>
@@ -8115,13 +8140,13 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="9">
-        <v>83654</v>
+        <v>83532</v>
       </c>
       <c r="B284" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C284" s="9" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D284" s="10">
         <v>465</v>
@@ -8138,82 +8163,82 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="9">
+        <v>83562</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C285" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="D285" s="10">
+        <v>465</v>
+      </c>
+      <c r="E285" s="10">
+        <v>465</v>
+      </c>
+      <c r="F285" s="10">
+        <v>566</v>
+      </c>
+      <c r="G285" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="9">
+        <v>83624</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C286" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D286" s="10">
+        <v>465</v>
+      </c>
+      <c r="E286" s="10">
+        <v>465</v>
+      </c>
+      <c r="F286" s="10">
+        <v>566</v>
+      </c>
+      <c r="G286" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="9">
+        <v>83654</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C287" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D287" s="10">
+        <v>465</v>
+      </c>
+      <c r="E287" s="10">
+        <v>465</v>
+      </c>
+      <c r="F287" s="10">
+        <v>566</v>
+      </c>
+      <c r="G287" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="9">
         <v>83815</v>
       </c>
-      <c r="B285" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C285" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D285" s="10">
-        <v>465</v>
-      </c>
-      <c r="E285" s="10">
-        <v>465</v>
-      </c>
-      <c r="F285" s="10">
-        <v>566</v>
-      </c>
-      <c r="G285" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="10">
-        <v>84005</v>
-      </c>
-      <c r="B286" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C286" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="D286" s="10">
-        <v>465</v>
-      </c>
-      <c r="E286" s="10">
-        <v>465</v>
-      </c>
-      <c r="F286" s="10">
-        <v>566</v>
-      </c>
-      <c r="G286" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="10">
-        <v>85005</v>
-      </c>
-      <c r="B287" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C287" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="D287" s="10">
-        <v>465</v>
-      </c>
-      <c r="E287" s="10">
-        <v>465</v>
-      </c>
-      <c r="F287" s="10">
-        <v>566</v>
-      </c>
-      <c r="G287" s="10">
-        <v>25272</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="10">
-        <v>85124</v>
-      </c>
       <c r="B288" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C288" s="16" t="s">
-        <v>325</v>
+      <c r="C288" s="9" t="s">
+        <v>317</v>
       </c>
       <c r="D288" s="10">
         <v>465</v>
@@ -8230,13 +8255,13 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="10">
-        <v>90203</v>
+        <v>84005</v>
       </c>
       <c r="B289" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C289" s="16" t="s">
-        <v>326</v>
+      <c r="C289" s="9" t="s">
+        <v>318</v>
       </c>
       <c r="D289" s="10">
         <v>465</v>
@@ -8253,203 +8278,203 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="10">
+        <v>85005</v>
+      </c>
+      <c r="B290" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C290" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="D290" s="10">
+        <v>465</v>
+      </c>
+      <c r="E290" s="10">
+        <v>465</v>
+      </c>
+      <c r="F290" s="10">
+        <v>566</v>
+      </c>
+      <c r="G290" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="10">
+        <v>85124</v>
+      </c>
+      <c r="B291" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C291" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="D291" s="10">
+        <v>465</v>
+      </c>
+      <c r="E291" s="10">
+        <v>465</v>
+      </c>
+      <c r="F291" s="10">
+        <v>566</v>
+      </c>
+      <c r="G291" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="10">
+        <v>90203</v>
+      </c>
+      <c r="B292" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C292" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="D292" s="10">
+        <v>465</v>
+      </c>
+      <c r="E292" s="10">
+        <v>465</v>
+      </c>
+      <c r="F292" s="10">
+        <v>566</v>
+      </c>
+      <c r="G292" s="10">
+        <v>25272</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="10">
         <v>90243</v>
       </c>
-      <c r="B290" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C290" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="D290" s="10">
-        <v>465</v>
-      </c>
-      <c r="E290" s="10">
-        <v>465</v>
-      </c>
-      <c r="F290" s="10">
-        <v>569</v>
-      </c>
-      <c r="G290" s="10">
+      <c r="B293" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C293" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="D293" s="10">
+        <v>465</v>
+      </c>
+      <c r="E293" s="10">
+        <v>465</v>
+      </c>
+      <c r="F293" s="10">
+        <v>569</v>
+      </c>
+      <c r="G293" s="10">
         <v>25273</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" s="9">
-        <v>95005</v>
-      </c>
-      <c r="B291" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C291" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="D291" s="10">
-        <v>465</v>
-      </c>
-      <c r="E291" s="10">
-        <v>465</v>
-      </c>
-      <c r="F291" s="10">
-        <v>474</v>
-      </c>
-      <c r="G291" s="10">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="9">
-        <v>121001</v>
-      </c>
-      <c r="B292" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C292" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="D292" s="10">
-        <v>28196</v>
-      </c>
-      <c r="E292" s="10">
-        <v>28196</v>
-      </c>
-      <c r="F292" s="10">
-        <v>27519</v>
-      </c>
-      <c r="G292" s="10">
-        <v>27519</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" s="9">
-        <v>121002</v>
-      </c>
-      <c r="B293" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C293" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="D293" s="10">
-        <v>28196</v>
-      </c>
-      <c r="E293" s="10">
-        <v>28196</v>
-      </c>
-      <c r="F293" s="10">
-        <v>27519</v>
-      </c>
-      <c r="G293" s="10">
-        <v>27519</v>
       </c>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="9">
+        <v>95005</v>
+      </c>
+      <c r="B294" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D294" s="10">
+        <v>465</v>
+      </c>
+      <c r="E294" s="10">
+        <v>465</v>
+      </c>
+      <c r="F294" s="10">
+        <v>474</v>
+      </c>
+      <c r="G294" s="10">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="9">
+        <v>121001</v>
+      </c>
+      <c r="B295" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C295" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D295" s="10">
+        <v>28196</v>
+      </c>
+      <c r="E295" s="10">
+        <v>28196</v>
+      </c>
+      <c r="F295" s="10">
+        <v>27519</v>
+      </c>
+      <c r="G295" s="10">
+        <v>27519</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="9">
+        <v>121002</v>
+      </c>
+      <c r="B296" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C296" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D296" s="10">
+        <v>28196</v>
+      </c>
+      <c r="E296" s="10">
+        <v>28196</v>
+      </c>
+      <c r="F296" s="10">
+        <v>27519</v>
+      </c>
+      <c r="G296" s="10">
+        <v>27519</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="9">
         <v>121003</v>
       </c>
-      <c r="B294" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C294" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="D294" s="10">
+      <c r="B297" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C297" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="D297" s="10">
         <v>28196</v>
       </c>
-      <c r="E294" s="10">
+      <c r="E297" s="10">
         <v>28196</v>
       </c>
-      <c r="F294" s="10">
+      <c r="F297" s="10">
         <v>27519</v>
       </c>
-      <c r="G294" s="10">
+      <c r="G297" s="10">
         <v>27519</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="10">
-        <v>382</v>
-      </c>
-      <c r="B295" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C295" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D295" s="10">
-        <v>25170</v>
-      </c>
-      <c r="E295" s="10">
-        <v>25170</v>
-      </c>
-      <c r="F295" s="10">
-        <v>465</v>
-      </c>
-      <c r="G295" s="10">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296" s="10">
-        <v>383</v>
-      </c>
-      <c r="B296" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C296" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D296" s="10">
-        <v>25170</v>
-      </c>
-      <c r="E296" s="10">
-        <v>25170</v>
-      </c>
-      <c r="F296" s="10">
-        <v>465</v>
-      </c>
-      <c r="G296" s="10">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" s="10">
-        <v>441</v>
-      </c>
-      <c r="B297" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C297" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D297" s="10">
-        <v>25271</v>
-      </c>
-      <c r="E297" s="10">
-        <v>25271</v>
-      </c>
-      <c r="F297" s="10">
-        <v>465</v>
-      </c>
-      <c r="G297" s="10">
-        <v>465</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="10">
-        <v>703</v>
+        <v>382</v>
       </c>
       <c r="B298" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C298" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C298" s="16" t="s">
-        <v>95</v>
-      </c>
       <c r="D298" s="10">
-        <v>566</v>
+        <v>25170</v>
       </c>
       <c r="E298" s="10">
-        <v>25272</v>
+        <v>25170</v>
       </c>
       <c r="F298" s="10">
         <v>465</v>
@@ -8460,19 +8485,19 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="10">
-        <v>723</v>
+        <v>383</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C299" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D299" s="10">
-        <v>566</v>
+        <v>25170</v>
       </c>
       <c r="E299" s="10">
-        <v>25272</v>
+        <v>25170</v>
       </c>
       <c r="F299" s="10">
         <v>465</v>
@@ -8483,19 +8508,19 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="10">
-        <v>782</v>
+        <v>441</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C300" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D300" s="10">
-        <v>566</v>
+        <v>25271</v>
       </c>
       <c r="E300" s="10">
-        <v>25272</v>
+        <v>25271</v>
       </c>
       <c r="F300" s="10">
         <v>465</v>
@@ -8506,19 +8531,19 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="10">
-        <v>803</v>
+        <v>703</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C301" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D301" s="10">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="E301" s="10">
-        <v>25280</v>
+        <v>25272</v>
       </c>
       <c r="F301" s="10">
         <v>465</v>
@@ -8529,19 +8554,19 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="10">
-        <v>805</v>
+        <v>723</v>
       </c>
       <c r="B302" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C302" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D302" s="10">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="E302" s="10">
-        <v>25280</v>
+        <v>25272</v>
       </c>
       <c r="F302" s="10">
         <v>465</v>
@@ -8552,19 +8577,19 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="10">
-        <v>851</v>
+        <v>782</v>
       </c>
       <c r="B303" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C303" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D303" s="10">
-        <v>26486</v>
+        <v>566</v>
       </c>
       <c r="E303" s="10">
-        <v>26486</v>
+        <v>25272</v>
       </c>
       <c r="F303" s="10">
         <v>465</v>
@@ -8574,20 +8599,20 @@
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" s="9">
-        <v>852</v>
+      <c r="A304" s="10">
+        <v>803</v>
       </c>
       <c r="B304" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C304" s="9" t="s">
-        <v>101</v>
+        <v>90</v>
+      </c>
+      <c r="C304" s="16" t="s">
+        <v>97</v>
       </c>
       <c r="D304" s="10">
-        <v>26486</v>
+        <v>573</v>
       </c>
       <c r="E304" s="10">
-        <v>26486</v>
+        <v>25280</v>
       </c>
       <c r="F304" s="10">
         <v>465</v>
@@ -8598,19 +8623,19 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="10">
-        <v>872</v>
+        <v>805</v>
       </c>
       <c r="B305" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C305" s="16" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D305" s="10">
-        <v>26800</v>
+        <v>573</v>
       </c>
       <c r="E305" s="10">
-        <v>26800</v>
+        <v>25280</v>
       </c>
       <c r="F305" s="10">
         <v>465</v>
@@ -8621,19 +8646,19 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="10">
-        <v>903</v>
+        <v>851</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C306" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D306" s="10">
-        <v>29501</v>
+        <v>26486</v>
       </c>
       <c r="E306" s="10">
-        <v>29501</v>
+        <v>26486</v>
       </c>
       <c r="F306" s="10">
         <v>465</v>
@@ -8644,19 +8669,19 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="9">
-        <v>1504</v>
+        <v>852</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C307" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D307" s="10">
-        <v>566</v>
+        <v>26486</v>
       </c>
       <c r="E307" s="10">
-        <v>25272</v>
+        <v>26486</v>
       </c>
       <c r="F307" s="10">
         <v>465</v>
@@ -8667,19 +8692,19 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="10">
-        <v>3055</v>
+        <v>872</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C308" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D308" s="10">
-        <v>25285</v>
+        <v>26800</v>
       </c>
       <c r="E308" s="10">
-        <v>25285</v>
+        <v>26800</v>
       </c>
       <c r="F308" s="10">
         <v>465</v>
@@ -8690,19 +8715,19 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="10">
-        <v>3206</v>
+        <v>903</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C309" s="9" t="s">
-        <v>106</v>
+        <v>90</v>
+      </c>
+      <c r="C309" s="16" t="s">
+        <v>102</v>
       </c>
       <c r="D309" s="10">
-        <v>572</v>
+        <v>29501</v>
       </c>
       <c r="E309" s="10">
-        <v>33030</v>
+        <v>29501</v>
       </c>
       <c r="F309" s="10">
         <v>465</v>
@@ -8712,20 +8737,20 @@
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" s="10">
-        <v>3207</v>
+      <c r="A310" s="9">
+        <v>1504</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D310" s="10">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E310" s="10">
-        <v>33030</v>
+        <v>25272</v>
       </c>
       <c r="F310" s="10">
         <v>465</v>
@@ -8736,19 +8761,19 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="10">
-        <v>3208</v>
+        <v>3055</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C311" s="9" t="s">
-        <v>108</v>
+        <v>90</v>
+      </c>
+      <c r="C311" s="16" t="s">
+        <v>104</v>
       </c>
       <c r="D311" s="10">
-        <v>572</v>
+        <v>25285</v>
       </c>
       <c r="E311" s="10">
-        <v>33030</v>
+        <v>25285</v>
       </c>
       <c r="F311" s="10">
         <v>465</v>
@@ -8759,19 +8784,19 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="10">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C312" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D312" s="10">
         <v>572</v>
       </c>
       <c r="E312" s="10">
-        <v>33030</v>
+        <v>572</v>
       </c>
       <c r="F312" s="10">
         <v>465</v>
@@ -8782,19 +8807,19 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="10">
-        <v>14503</v>
+        <v>3207</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C313" s="16" t="s">
-        <v>110</v>
+        <v>90</v>
+      </c>
+      <c r="C313" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="D313" s="10">
-        <v>412</v>
+        <v>572</v>
       </c>
       <c r="E313" s="10">
-        <v>412</v>
+        <v>572</v>
       </c>
       <c r="F313" s="10">
         <v>465</v>
@@ -8804,20 +8829,20 @@
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" s="9">
-        <v>14504</v>
+      <c r="A314" s="10">
+        <v>3208</v>
       </c>
       <c r="B314" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D314" s="10">
-        <v>25285</v>
+        <v>572</v>
       </c>
       <c r="E314" s="10">
-        <v>25285</v>
+        <v>572</v>
       </c>
       <c r="F314" s="10">
         <v>465</v>
@@ -8828,82 +8853,82 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="10">
-        <v>49005</v>
+        <v>3209</v>
       </c>
       <c r="B315" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C315" s="16" t="s">
-        <v>132</v>
+        <v>90</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="D315" s="10">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E315" s="10">
-        <v>25273</v>
+        <v>572</v>
       </c>
       <c r="F315" s="10">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="G315" s="10">
-        <v>413</v>
+        <v>465</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="10">
-        <v>49105</v>
+        <v>14503</v>
       </c>
       <c r="B316" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C316" s="16" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D316" s="10">
-        <v>569</v>
+        <v>412</v>
       </c>
       <c r="E316" s="10">
-        <v>25273</v>
+        <v>412</v>
       </c>
       <c r="F316" s="10">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="G316" s="10">
-        <v>413</v>
+        <v>465</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317" s="10">
-        <v>59005</v>
+      <c r="A317" s="9">
+        <v>14504</v>
       </c>
       <c r="B317" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C317" s="16" t="s">
-        <v>158</v>
+        <v>90</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="D317" s="10">
-        <v>569</v>
+        <v>25285</v>
       </c>
       <c r="E317" s="10">
-        <v>25273</v>
+        <v>25285</v>
       </c>
       <c r="F317" s="10">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="G317" s="10">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="10">
-        <v>68003</v>
+        <v>49005</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C318" s="9" t="s">
-        <v>177</v>
+        <v>90</v>
+      </c>
+      <c r="C318" s="16" t="s">
+        <v>131</v>
       </c>
       <c r="D318" s="10">
         <v>569</v>
@@ -8912,21 +8937,21 @@
         <v>25273</v>
       </c>
       <c r="F318" s="10">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="G318" s="10">
-        <v>465</v>
+        <v>413</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="10">
-        <v>68005</v>
+        <v>49105</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C319" s="9" t="s">
-        <v>178</v>
+        <v>90</v>
+      </c>
+      <c r="C319" s="16" t="s">
+        <v>132</v>
       </c>
       <c r="D319" s="10">
         <v>569</v>
@@ -8935,21 +8960,21 @@
         <v>25273</v>
       </c>
       <c r="F319" s="10">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="G319" s="10">
-        <v>465</v>
+        <v>413</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="10">
-        <v>69105</v>
+        <v>59005</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C320" s="9" t="s">
-        <v>179</v>
+        <v>90</v>
+      </c>
+      <c r="C320" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="D320" s="10">
         <v>569</v>
@@ -8958,96 +8983,96 @@
         <v>25273</v>
       </c>
       <c r="F320" s="10">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="G320" s="10">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="322" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="323" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="10">
+        <v>68003</v>
+      </c>
+      <c r="B321" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C321" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="D321" s="10">
+        <v>569</v>
+      </c>
+      <c r="E321" s="10">
+        <v>25273</v>
+      </c>
+      <c r="F321" s="10">
+        <v>465</v>
+      </c>
+      <c r="G321" s="10">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="10">
+        <v>68005</v>
+      </c>
+      <c r="B322" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C322" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D322" s="10">
+        <v>569</v>
+      </c>
+      <c r="E322" s="10">
+        <v>25273</v>
+      </c>
+      <c r="F322" s="10">
+        <v>465</v>
+      </c>
+      <c r="G322" s="10">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="10">
+        <v>69105</v>
+      </c>
+      <c r="B323" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C323" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D323" s="10">
+        <v>569</v>
+      </c>
+      <c r="E323" s="10">
+        <v>25273</v>
+      </c>
+      <c r="F323" s="10">
+        <v>465</v>
+      </c>
+      <c r="G323" s="10">
+        <v>465</v>
+      </c>
+    </row>
     <row r="324" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="325" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="326" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" s="9">
-        <v>70302</v>
-      </c>
-      <c r="B327" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C327" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D327" s="10">
-        <v>566</v>
-      </c>
-      <c r="E327" s="10">
-        <v>25272</v>
-      </c>
-      <c r="F327" s="10">
-        <v>465</v>
-      </c>
-      <c r="G327" s="10">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="10">
-        <v>70303</v>
-      </c>
-      <c r="B328" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C328" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D328" s="10">
-        <v>566</v>
-      </c>
-      <c r="E328" s="10">
-        <v>25272</v>
-      </c>
-      <c r="F328" s="10">
-        <v>465</v>
-      </c>
-      <c r="G328" s="10">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="9">
-        <v>70322</v>
-      </c>
-      <c r="B329" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C329" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D329" s="10">
-        <v>566</v>
-      </c>
-      <c r="E329" s="10">
-        <v>25272</v>
-      </c>
-      <c r="F329" s="10">
-        <v>465</v>
-      </c>
-      <c r="G329" s="10">
-        <v>465</v>
-      </c>
-    </row>
+    <row r="327" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="328" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="329" spans="1:7" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="9">
-        <v>70381</v>
+        <v>70302</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C330" s="9" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="D330" s="10">
         <v>566</v>
@@ -9063,14 +9088,14 @@
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331" s="9">
-        <v>70402</v>
+      <c r="A331" s="10">
+        <v>70303</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C331" s="9" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="D331" s="10">
         <v>566</v>
@@ -9087,105 +9112,105 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="9">
+        <v>70322</v>
+      </c>
+      <c r="B332" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C332" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D332" s="10">
+        <v>566</v>
+      </c>
+      <c r="E332" s="10">
+        <v>25272</v>
+      </c>
+      <c r="F332" s="10">
+        <v>465</v>
+      </c>
+      <c r="G332" s="10">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" s="9">
+        <v>70381</v>
+      </c>
+      <c r="B333" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C333" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D333" s="10">
+        <v>566</v>
+      </c>
+      <c r="E333" s="10">
+        <v>25272</v>
+      </c>
+      <c r="F333" s="10">
+        <v>465</v>
+      </c>
+      <c r="G333" s="10">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" s="9">
+        <v>70402</v>
+      </c>
+      <c r="B334" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C334" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D334" s="10">
+        <v>566</v>
+      </c>
+      <c r="E334" s="10">
+        <v>25272</v>
+      </c>
+      <c r="F334" s="10">
+        <v>465</v>
+      </c>
+      <c r="G334" s="10">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" s="9">
         <v>70422</v>
       </c>
-      <c r="B332" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C332" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="D332" s="10">
-        <v>566</v>
-      </c>
-      <c r="E332" s="10">
-        <v>25272</v>
-      </c>
-      <c r="F332" s="10">
-        <v>465</v>
-      </c>
-      <c r="G332" s="10">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333" s="10">
+      <c r="B335" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C335" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D335" s="10">
+        <v>566</v>
+      </c>
+      <c r="E335" s="10">
+        <v>25272</v>
+      </c>
+      <c r="F335" s="10">
+        <v>465</v>
+      </c>
+      <c r="G335" s="10">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" s="10">
         <v>89105</v>
       </c>
-      <c r="B333" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C333" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="D333" s="10">
-        <v>566</v>
-      </c>
-      <c r="E333" s="10">
-        <v>25272</v>
-      </c>
-      <c r="F333" s="10">
-        <v>465</v>
-      </c>
-      <c r="G333" s="10">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="10">
-        <v>89305</v>
-      </c>
-      <c r="B334" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C334" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="D334" s="10">
-        <v>566</v>
-      </c>
-      <c r="E334" s="10">
-        <v>25272</v>
-      </c>
-      <c r="F334" s="10">
-        <v>465</v>
-      </c>
-      <c r="G334" s="10">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" s="10">
-        <v>89455</v>
-      </c>
-      <c r="B335" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C335" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="D335" s="10">
-        <v>566</v>
-      </c>
-      <c r="E335" s="10">
-        <v>25272</v>
-      </c>
-      <c r="F335" s="10">
-        <v>465</v>
-      </c>
-      <c r="G335" s="10">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A336" s="9">
-        <v>90303</v>
-      </c>
       <c r="B336" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C336" s="16" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="D336" s="10">
         <v>566</v>
@@ -9202,13 +9227,13 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="10">
-        <v>90393</v>
+        <v>89305</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C337" s="16" t="s">
-        <v>356</v>
+        <v>238</v>
       </c>
       <c r="D337" s="10">
         <v>566</v>
@@ -9225,19 +9250,19 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="10">
-        <v>91005</v>
+        <v>89455</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C338" s="16" t="s">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="D338" s="10">
-        <v>474</v>
+        <v>566</v>
       </c>
       <c r="E338" s="10">
-        <v>474</v>
+        <v>25272</v>
       </c>
       <c r="F338" s="10">
         <v>465</v>
@@ -9247,60 +9272,60 @@
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A339" s="10">
-        <v>91006</v>
+      <c r="A339" s="9">
+        <v>90303</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C339" s="16" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="D339" s="10">
-        <v>474</v>
+        <v>566</v>
       </c>
       <c r="E339" s="10">
-        <v>474</v>
+        <v>25272</v>
       </c>
       <c r="F339" s="10">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="G339" s="10">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="10">
-        <v>91007</v>
+        <v>90393</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C340" s="16" t="s">
-        <v>281</v>
+        <v>355</v>
       </c>
       <c r="D340" s="10">
-        <v>474</v>
+        <v>566</v>
       </c>
       <c r="E340" s="10">
-        <v>474</v>
+        <v>25272</v>
       </c>
       <c r="F340" s="10">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G340" s="10">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="10">
-        <v>91025</v>
+        <v>91005</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C341" s="16" t="s">
-        <v>282</v>
+        <v>116</v>
       </c>
       <c r="D341" s="10">
         <v>474</v>
@@ -9317,13 +9342,13 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="10">
-        <v>91205</v>
+        <v>91006</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C342" s="16" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="D342" s="10">
         <v>474</v>
@@ -9332,21 +9357,21 @@
         <v>474</v>
       </c>
       <c r="F342" s="10">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="G342" s="10">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="10">
-        <v>91405</v>
+        <v>91007</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C343" s="16" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D343" s="10">
         <v>474</v>
@@ -9355,21 +9380,21 @@
         <v>474</v>
       </c>
       <c r="F343" s="10">
-        <v>28196</v>
+        <v>466</v>
       </c>
       <c r="G343" s="10">
-        <v>28196</v>
+        <v>466</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="10">
-        <v>91455</v>
+        <v>91025</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C344" s="16" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D344" s="10">
         <v>474</v>
@@ -9378,27 +9403,27 @@
         <v>474</v>
       </c>
       <c r="F344" s="10">
-        <v>28196</v>
+        <v>465</v>
       </c>
       <c r="G344" s="10">
-        <v>28196</v>
+        <v>465</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="10">
-        <v>91505</v>
+        <v>91205</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C345" s="16" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="D345" s="10">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E345" s="10">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F345" s="10">
         <v>465</v>
@@ -9409,59 +9434,59 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="10">
-        <v>91506</v>
+        <v>91405</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C346" s="16" t="s">
-        <v>357</v>
+        <v>293</v>
       </c>
       <c r="D346" s="10">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E346" s="10">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F346" s="10">
-        <v>473</v>
+        <v>28196</v>
       </c>
       <c r="G346" s="10">
-        <v>473</v>
+        <v>28196</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="10">
-        <v>91507</v>
+        <v>91455</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="D347" s="10">
-        <v>25288</v>
+        <v>474</v>
       </c>
       <c r="E347" s="10">
-        <v>25288</v>
+        <v>474</v>
       </c>
       <c r="F347" s="10">
-        <v>466</v>
+        <v>28196</v>
       </c>
       <c r="G347" s="10">
-        <v>466</v>
+        <v>28196</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="10">
-        <v>91525</v>
+        <v>91505</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C348" s="16" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="D348" s="10">
         <v>476</v>
@@ -9477,35 +9502,104 @@
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A349" s="10"/>
-      <c r="B349" s="9"/>
-      <c r="C349" s="16"/>
-      <c r="D349" s="10"/>
-      <c r="E349" s="10"/>
-      <c r="F349" s="10"/>
-      <c r="G349" s="10"/>
+      <c r="A349" s="10">
+        <v>91506</v>
+      </c>
+      <c r="B349" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C349" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="D349" s="10">
+        <v>476</v>
+      </c>
+      <c r="E349" s="10">
+        <v>476</v>
+      </c>
+      <c r="F349" s="10">
+        <v>473</v>
+      </c>
+      <c r="G349" s="10">
+        <v>473</v>
+      </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A350" s="10"/>
-      <c r="B350" s="9"/>
-      <c r="C350" s="16"/>
-      <c r="D350" s="10"/>
-      <c r="E350" s="10"/>
-      <c r="F350" s="10"/>
-      <c r="G350" s="10"/>
+      <c r="A350" s="10">
+        <v>91507</v>
+      </c>
+      <c r="B350" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C350" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="D350" s="10">
+        <v>25288</v>
+      </c>
+      <c r="E350" s="10">
+        <v>25288</v>
+      </c>
+      <c r="F350" s="10">
+        <v>466</v>
+      </c>
+      <c r="G350" s="10">
+        <v>466</v>
+      </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A351" s="10"/>
-      <c r="B351" s="9"/>
-      <c r="C351" s="16"/>
-      <c r="D351" s="10"/>
-      <c r="E351" s="10"/>
-      <c r="F351" s="10"/>
-      <c r="G351" s="10"/>
+      <c r="A351" s="10">
+        <v>91525</v>
+      </c>
+      <c r="B351" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C351" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="D351" s="10">
+        <v>476</v>
+      </c>
+      <c r="E351" s="10">
+        <v>476</v>
+      </c>
+      <c r="F351" s="10">
+        <v>465</v>
+      </c>
+      <c r="G351" s="10">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" s="10"/>
+      <c r="B352" s="9"/>
+      <c r="C352" s="16"/>
+      <c r="D352" s="10"/>
+      <c r="E352" s="10"/>
+      <c r="F352" s="10"/>
+      <c r="G352" s="10"/>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" s="10"/>
+      <c r="B353" s="9"/>
+      <c r="C353" s="16"/>
+      <c r="D353" s="10"/>
+      <c r="E353" s="10"/>
+      <c r="F353" s="10"/>
+      <c r="G353" s="10"/>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" s="10"/>
+      <c r="B354" s="9"/>
+      <c r="C354" s="16"/>
+      <c r="D354" s="10"/>
+      <c r="E354" s="10"/>
+      <c r="F354" s="10"/>
+      <c r="G354" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G12" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="A59:A68 A35:A42 A47:A50 A54:A57 A72:A161 A70">
+  <autoFilter ref="A1:G323" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="A61:A70 A37:A44 A49:A52 A56:A59 A74:A163 A72">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9531,16 +9625,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -9548,13 +9642,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -9562,13 +9656,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -9576,13 +9670,13 @@
         <v>56</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>345</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -9590,13 +9684,13 @@
         <v>57</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>347</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -9604,13 +9698,13 @@
         <v>77</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -9640,18 +9734,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
